--- a/test/Statistics.xlsx
+++ b/test/Statistics.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,28 +640,28 @@
         <v>43840</v>
       </c>
       <c r="B8">
-        <v>1635979.660000001</v>
+        <v>1453049.780000001</v>
       </c>
       <c r="C8">
-        <v>635979.6600000003</v>
+        <v>453049.7800000001</v>
       </c>
       <c r="D8">
         <v>1000000</v>
       </c>
       <c r="E8">
-        <v>5122.959999999998</v>
+        <v>6735.9</v>
       </c>
       <c r="F8">
-        <v>5122.959999999998</v>
+        <v>6735.9</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4401.46</v>
+        <v>5610.929999999998</v>
       </c>
       <c r="I8">
-        <v>4401.46</v>
+        <v>5610.929999999998</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,28 +672,28 @@
         <v>43843</v>
       </c>
       <c r="B9">
-        <v>1819973.780000001</v>
+        <v>1593385.550000001</v>
       </c>
       <c r="C9">
-        <v>819973.78</v>
+        <v>593385.55</v>
       </c>
       <c r="D9">
         <v>1000000</v>
       </c>
       <c r="E9">
-        <v>4542.49</v>
+        <v>3498.189999999991</v>
       </c>
       <c r="F9">
-        <v>4542.49</v>
+        <v>3498.189999999991</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5240.620000000006</v>
+        <v>5965.470000000001</v>
       </c>
       <c r="I9">
-        <v>5240.620000000006</v>
+        <v>5965.470000000001</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>43844</v>
       </c>
       <c r="B10">
-        <v>1904044.010000001</v>
+        <v>1720505.290000001</v>
       </c>
       <c r="C10">
-        <v>904044.01</v>
+        <v>720505.2899999999</v>
       </c>
       <c r="D10">
         <v>1000000</v>
       </c>
       <c r="E10">
-        <v>6571.939999999998</v>
+        <v>7612.349999999995</v>
       </c>
       <c r="F10">
-        <v>6571.939999999998</v>
+        <v>7612.349999999995</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6459.259999999997</v>
+        <v>8845.619999999994</v>
       </c>
       <c r="I10">
-        <v>6459.259999999997</v>
+        <v>8845.619999999994</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>43845</v>
       </c>
       <c r="B11">
-        <v>2006248.810000001</v>
+        <v>2008586.380000002</v>
       </c>
       <c r="C11">
-        <v>1006248.81</v>
+        <v>1008586.38</v>
       </c>
       <c r="D11">
         <v>1000000</v>
       </c>
       <c r="E11">
-        <v>6248.809999999998</v>
+        <v>8586.379999999996</v>
       </c>
       <c r="F11">
-        <v>6248.809999999998</v>
+        <v>8586.379999999996</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6248.809999999995</v>
+        <v>8586.379999999996</v>
       </c>
       <c r="I11">
-        <v>6248.809999999995</v>
+        <v>8586.379999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -768,28 +768,28 @@
         <v>43846</v>
       </c>
       <c r="B12">
-        <v>1201563.130000001</v>
+        <v>1202080.700000002</v>
       </c>
       <c r="C12">
-        <v>201563.1300000001</v>
+        <v>202080.7000000001</v>
       </c>
       <c r="D12">
         <v>1000000</v>
       </c>
       <c r="E12">
-        <v>6248.809999999998</v>
+        <v>8586.379999999996</v>
       </c>
       <c r="F12">
-        <v>6248.809999999998</v>
+        <v>8586.379999999996</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13769.02999999999</v>
+        <v>16124.63</v>
       </c>
       <c r="I12">
-        <v>13769.02999999999</v>
+        <v>16124.63</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>43847</v>
       </c>
       <c r="B13">
-        <v>1809865.540000001</v>
+        <v>1639883.830000002</v>
       </c>
       <c r="C13">
-        <v>809865.54</v>
+        <v>639883.8300000001</v>
       </c>
       <c r="D13">
         <v>1000000</v>
       </c>
       <c r="E13">
-        <v>16240.11999999998</v>
+        <v>12138.08999999999</v>
       </c>
       <c r="F13">
-        <v>16240.11999999998</v>
+        <v>12138.08999999999</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14349.04999999999</v>
+        <v>11416.17999999998</v>
       </c>
       <c r="I13">
-        <v>14349.04999999999</v>
+        <v>11416.17999999998</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -832,28 +832,28 @@
         <v>43850</v>
       </c>
       <c r="B14">
-        <v>1933777.23</v>
+        <v>1783617.760000003</v>
       </c>
       <c r="C14">
-        <v>933777.2300000001</v>
+        <v>783617.76</v>
       </c>
       <c r="D14">
         <v>1000000</v>
       </c>
       <c r="E14">
-        <v>16333.64999999999</v>
+        <v>11099.78999999998</v>
       </c>
       <c r="F14">
-        <v>16333.64999999999</v>
+        <v>11099.78999999998</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15817.35999999999</v>
+        <v>12685.19999999999</v>
       </c>
       <c r="I14">
-        <v>15817.35999999999</v>
+        <v>12685.19999999999</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>43851</v>
       </c>
       <c r="B15">
-        <v>1993911</v>
+        <v>1927436.580000002</v>
       </c>
       <c r="C15">
-        <v>993911.0000000001</v>
+        <v>927436.5800000001</v>
       </c>
       <c r="D15">
         <v>1000000</v>
       </c>
       <c r="E15">
-        <v>14548.49999999999</v>
+        <v>10121.91999999999</v>
       </c>
       <c r="F15">
-        <v>14548.49999999999</v>
+        <v>10121.91999999999</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14234.80999999999</v>
+        <v>10193.37999999999</v>
       </c>
       <c r="I15">
-        <v>14234.80999999999</v>
+        <v>10193.37999999999</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -896,28 +896,28 @@
         <v>43852</v>
       </c>
       <c r="B16">
-        <v>2014267.830000001</v>
+        <v>2009853.180000002</v>
       </c>
       <c r="C16">
-        <v>1014267.83</v>
+        <v>1009853.18</v>
       </c>
       <c r="D16">
         <v>1000000</v>
       </c>
       <c r="E16">
-        <v>14267.82999999999</v>
+        <v>9853.179999999989</v>
       </c>
       <c r="F16">
-        <v>14267.82999999999</v>
+        <v>9853.179999999989</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14267.82999999999</v>
+        <v>9853.179999999989</v>
       </c>
       <c r="I16">
-        <v>14267.82999999999</v>
+        <v>9853.179999999989</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -928,30 +928,7294 @@
         <v>43853</v>
       </c>
       <c r="B17">
-        <v>2014267.830000001</v>
+        <v>1202193.580000002</v>
       </c>
       <c r="C17">
-        <v>1014267.83</v>
+        <v>202193.5799999999</v>
       </c>
       <c r="D17">
         <v>1000000</v>
       </c>
       <c r="E17">
-        <v>14267.82999999999</v>
+        <v>9853.179999999989</v>
       </c>
       <c r="F17">
-        <v>14267.82999999999</v>
+        <v>9853.179999999989</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14267.82999999999</v>
+        <v>-2816.960000000002</v>
       </c>
       <c r="I17">
-        <v>14267.82999999999</v>
+        <v>-2816.960000000002</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B18">
+        <v>1995402.560000002</v>
+      </c>
+      <c r="C18">
+        <v>995402.5599999999</v>
+      </c>
+      <c r="D18">
+        <v>1000000</v>
+      </c>
+      <c r="E18">
+        <v>-4597.440000000003</v>
+      </c>
+      <c r="F18">
+        <v>-4597.440000000003</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>-4597.439999999993</v>
+      </c>
+      <c r="I18">
+        <v>-4597.439999999993</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B19">
+        <v>1995402.560000002</v>
+      </c>
+      <c r="C19">
+        <v>995402.5599999999</v>
+      </c>
+      <c r="D19">
+        <v>1000000</v>
+      </c>
+      <c r="E19">
+        <v>-4597.440000000003</v>
+      </c>
+      <c r="F19">
+        <v>-4597.440000000003</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-4597.439999999993</v>
+      </c>
+      <c r="I19">
+        <v>-4597.439999999993</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B20">
+        <v>1995402.560000002</v>
+      </c>
+      <c r="C20">
+        <v>995402.5599999999</v>
+      </c>
+      <c r="D20">
+        <v>1000000</v>
+      </c>
+      <c r="E20">
+        <v>-4597.440000000003</v>
+      </c>
+      <c r="F20">
+        <v>-4597.440000000003</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-4597.439999999993</v>
+      </c>
+      <c r="I20">
+        <v>-4597.439999999993</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B21">
+        <v>1995402.560000002</v>
+      </c>
+      <c r="C21">
+        <v>995402.5599999999</v>
+      </c>
+      <c r="D21">
+        <v>1000000</v>
+      </c>
+      <c r="E21">
+        <v>-4597.440000000003</v>
+      </c>
+      <c r="F21">
+        <v>-4597.440000000003</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>-4597.439999999993</v>
+      </c>
+      <c r="I21">
+        <v>-4597.439999999993</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B22">
+        <v>1199307.350000003</v>
+      </c>
+      <c r="C22">
+        <v>199307.3499999999</v>
+      </c>
+      <c r="D22">
+        <v>1000000</v>
+      </c>
+      <c r="E22">
+        <v>-4597.440000000003</v>
+      </c>
+      <c r="F22">
+        <v>-4597.440000000003</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>-1786.210000000003</v>
+      </c>
+      <c r="I22">
+        <v>-1786.210000000003</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B23">
+        <v>1796415.510000002</v>
+      </c>
+      <c r="C23">
+        <v>796415.5099999998</v>
+      </c>
+      <c r="D23">
+        <v>1000000</v>
+      </c>
+      <c r="E23">
+        <v>553.1000000000023</v>
+      </c>
+      <c r="F23">
+        <v>553.1000000000023</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>5857.670000000008</v>
+      </c>
+      <c r="I23">
+        <v>5857.670000000008</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B24">
+        <v>1882218.240000002</v>
+      </c>
+      <c r="C24">
+        <v>882218.2399999998</v>
+      </c>
+      <c r="D24">
+        <v>1000000</v>
+      </c>
+      <c r="E24">
+        <v>4703.930000000002</v>
+      </c>
+      <c r="F24">
+        <v>4703.930000000002</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>6281.500000000005</v>
+      </c>
+      <c r="I24">
+        <v>6281.500000000005</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B25">
+        <v>1923924.180000002</v>
+      </c>
+      <c r="C25">
+        <v>923924.1799999997</v>
+      </c>
+      <c r="D25">
+        <v>1000000</v>
+      </c>
+      <c r="E25">
+        <v>5583.049999999999</v>
+      </c>
+      <c r="F25">
+        <v>5583.049999999999</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>7040.150000000007</v>
+      </c>
+      <c r="I25">
+        <v>7040.150000000007</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B26">
+        <v>2006994.870000002</v>
+      </c>
+      <c r="C26">
+        <v>1006994.87</v>
+      </c>
+      <c r="D26">
+        <v>1000000</v>
+      </c>
+      <c r="E26">
+        <v>6994.869999999999</v>
+      </c>
+      <c r="F26">
+        <v>6994.869999999999</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>6994.870000000005</v>
+      </c>
+      <c r="I26">
+        <v>6994.870000000005</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B27">
+        <v>1201568.740000002</v>
+      </c>
+      <c r="C27">
+        <v>201568.7399999999</v>
+      </c>
+      <c r="D27">
+        <v>1000000</v>
+      </c>
+      <c r="E27">
+        <v>6994.869999999999</v>
+      </c>
+      <c r="F27">
+        <v>6994.869999999999</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>25353.35000000001</v>
+      </c>
+      <c r="I27">
+        <v>25353.35000000001</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B28">
+        <v>1868599.380000002</v>
+      </c>
+      <c r="C28">
+        <v>868599.3799999999</v>
+      </c>
+      <c r="D28">
+        <v>1000000</v>
+      </c>
+      <c r="E28">
+        <v>33812.03000000001</v>
+      </c>
+      <c r="F28">
+        <v>33812.03000000001</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>36630.88000000002</v>
+      </c>
+      <c r="I28">
+        <v>36630.88000000002</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B29">
+        <v>1911973.830000002</v>
+      </c>
+      <c r="C29">
+        <v>911973.83</v>
+      </c>
+      <c r="D29">
+        <v>1000000</v>
+      </c>
+      <c r="E29">
+        <v>35880.22000000001</v>
+      </c>
+      <c r="F29">
+        <v>35880.22000000001</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>37045.17000000002</v>
+      </c>
+      <c r="I29">
+        <v>37045.17000000002</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B30">
+        <v>2013346.830000002</v>
+      </c>
+      <c r="C30">
+        <v>1013346.83</v>
+      </c>
+      <c r="D30">
+        <v>1000000</v>
+      </c>
+      <c r="E30">
+        <v>34000.27000000001</v>
+      </c>
+      <c r="F30">
+        <v>34000.27000000001</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>33821.71000000001</v>
+      </c>
+      <c r="I30">
+        <v>33821.71000000001</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B31">
+        <v>2033821.710000002</v>
+      </c>
+      <c r="C31">
+        <v>1033821.71</v>
+      </c>
+      <c r="D31">
+        <v>1000000</v>
+      </c>
+      <c r="E31">
+        <v>33821.71000000001</v>
+      </c>
+      <c r="F31">
+        <v>33821.71000000001</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>33821.71000000001</v>
+      </c>
+      <c r="I31">
+        <v>33821.71000000001</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B32">
+        <v>1207063.130000002</v>
+      </c>
+      <c r="C32">
+        <v>207063.1300000001</v>
+      </c>
+      <c r="D32">
+        <v>1000000</v>
+      </c>
+      <c r="E32">
+        <v>33821.71000000001</v>
+      </c>
+      <c r="F32">
+        <v>33821.71000000001</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>69182.59000000001</v>
+      </c>
+      <c r="I32">
+        <v>69182.59000000001</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B33">
+        <v>1950043.090000002</v>
+      </c>
+      <c r="C33">
+        <v>950043.0900000001</v>
+      </c>
+      <c r="D33">
+        <v>1000000</v>
+      </c>
+      <c r="E33">
+        <v>56065.03999999999</v>
+      </c>
+      <c r="F33">
+        <v>56065.03999999999</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>56629.96000000007</v>
+      </c>
+      <c r="I33">
+        <v>56629.96000000007</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B34">
+        <v>2054810.720000002</v>
+      </c>
+      <c r="C34">
+        <v>1054810.72</v>
+      </c>
+      <c r="D34">
+        <v>1000000</v>
+      </c>
+      <c r="E34">
+        <v>54810.71999999999</v>
+      </c>
+      <c r="F34">
+        <v>54810.71999999999</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>54810.72000000007</v>
+      </c>
+      <c r="I34">
+        <v>54810.72000000007</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B35">
+        <v>2054810.720000002</v>
+      </c>
+      <c r="C35">
+        <v>1054810.72</v>
+      </c>
+      <c r="D35">
+        <v>1000000</v>
+      </c>
+      <c r="E35">
+        <v>54810.71999999999</v>
+      </c>
+      <c r="F35">
+        <v>54810.71999999999</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>54810.72000000007</v>
+      </c>
+      <c r="I35">
+        <v>54810.72000000007</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B36">
+        <v>2054810.720000002</v>
+      </c>
+      <c r="C36">
+        <v>1054810.72</v>
+      </c>
+      <c r="D36">
+        <v>1000000</v>
+      </c>
+      <c r="E36">
+        <v>54810.71999999999</v>
+      </c>
+      <c r="F36">
+        <v>54810.71999999999</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>54810.72000000007</v>
+      </c>
+      <c r="I36">
+        <v>54810.72000000007</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B37">
+        <v>1211392.900000003</v>
+      </c>
+      <c r="C37">
+        <v>211392.8999999999</v>
+      </c>
+      <c r="D37">
+        <v>1000000</v>
+      </c>
+      <c r="E37">
+        <v>54810.71999999999</v>
+      </c>
+      <c r="F37">
+        <v>54810.71999999999</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>65358.91000000008</v>
+      </c>
+      <c r="I37">
+        <v>65358.91000000008</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B38">
+        <v>2024705.880000003</v>
+      </c>
+      <c r="C38">
+        <v>1024705.88</v>
+      </c>
+      <c r="D38">
+        <v>1000000</v>
+      </c>
+      <c r="E38">
+        <v>67954.12999999999</v>
+      </c>
+      <c r="F38">
+        <v>67954.12999999999</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>68423.88000000009</v>
+      </c>
+      <c r="I38">
+        <v>68423.88000000009</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B39">
+        <v>2070145.540000003</v>
+      </c>
+      <c r="C39">
+        <v>1070145.54</v>
+      </c>
+      <c r="D39">
+        <v>1000000</v>
+      </c>
+      <c r="E39">
+        <v>70145.53999999998</v>
+      </c>
+      <c r="F39">
+        <v>70145.53999999998</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>70145.5400000001</v>
+      </c>
+      <c r="I39">
+        <v>70145.5400000001</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B40">
+        <v>2070145.540000003</v>
+      </c>
+      <c r="C40">
+        <v>1070145.54</v>
+      </c>
+      <c r="D40">
+        <v>1000000</v>
+      </c>
+      <c r="E40">
+        <v>70145.53999999998</v>
+      </c>
+      <c r="F40">
+        <v>70145.53999999998</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>70145.5400000001</v>
+      </c>
+      <c r="I40">
+        <v>70145.5400000001</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B41">
+        <v>2070145.540000003</v>
+      </c>
+      <c r="C41">
+        <v>1070145.54</v>
+      </c>
+      <c r="D41">
+        <v>1000000</v>
+      </c>
+      <c r="E41">
+        <v>70145.53999999998</v>
+      </c>
+      <c r="F41">
+        <v>70145.53999999998</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>70145.5400000001</v>
+      </c>
+      <c r="I41">
+        <v>70145.5400000001</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B42">
+        <v>1214203.860000003</v>
+      </c>
+      <c r="C42">
+        <v>214203.8599999999</v>
+      </c>
+      <c r="D42">
+        <v>1000000</v>
+      </c>
+      <c r="E42">
+        <v>70145.53999999998</v>
+      </c>
+      <c r="F42">
+        <v>70145.53999999998</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>105881.3800000001</v>
+      </c>
+      <c r="I42">
+        <v>105881.3800000001</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B43">
+        <v>2049846.080000004</v>
+      </c>
+      <c r="C43">
+        <v>1049846.08</v>
+      </c>
+      <c r="D43">
+        <v>1000000</v>
+      </c>
+      <c r="E43">
+        <v>93745.29999999994</v>
+      </c>
+      <c r="F43">
+        <v>93745.29999999994</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>92986.50000000012</v>
+      </c>
+      <c r="I43">
+        <v>92986.50000000012</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B44">
+        <v>2094218.950000004</v>
+      </c>
+      <c r="C44">
+        <v>1094218.95</v>
+      </c>
+      <c r="D44">
+        <v>1000000</v>
+      </c>
+      <c r="E44">
+        <v>94218.94999999994</v>
+      </c>
+      <c r="F44">
+        <v>94218.94999999994</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>94218.95000000011</v>
+      </c>
+      <c r="I44">
+        <v>94218.95000000011</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B45">
+        <v>2094218.950000004</v>
+      </c>
+      <c r="C45">
+        <v>1094218.95</v>
+      </c>
+      <c r="D45">
+        <v>1000000</v>
+      </c>
+      <c r="E45">
+        <v>94218.94999999994</v>
+      </c>
+      <c r="F45">
+        <v>94218.94999999994</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>94218.95000000011</v>
+      </c>
+      <c r="I45">
+        <v>94218.95000000011</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B46">
+        <v>2094218.950000004</v>
+      </c>
+      <c r="C46">
+        <v>1094218.95</v>
+      </c>
+      <c r="D46">
+        <v>1000000</v>
+      </c>
+      <c r="E46">
+        <v>94218.94999999994</v>
+      </c>
+      <c r="F46">
+        <v>94218.94999999994</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>94218.95000000011</v>
+      </c>
+      <c r="I46">
+        <v>94218.95000000011</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B47">
+        <v>1219111.910000004</v>
+      </c>
+      <c r="C47">
+        <v>219111.9099999999</v>
+      </c>
+      <c r="D47">
+        <v>1000000</v>
+      </c>
+      <c r="E47">
+        <v>94218.94999999994</v>
+      </c>
+      <c r="F47">
+        <v>94218.94999999994</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>163079.9300000001</v>
+      </c>
+      <c r="I47">
+        <v>163079.9300000001</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B48">
+        <v>2123612.400000003</v>
+      </c>
+      <c r="C48">
+        <v>1123612.4</v>
+      </c>
+      <c r="D48">
+        <v>1000000</v>
+      </c>
+      <c r="E48">
+        <v>123612.3999999999</v>
+      </c>
+      <c r="F48">
+        <v>123612.3999999999</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>123612.4000000001</v>
+      </c>
+      <c r="I48">
+        <v>123612.4000000001</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B49">
+        <v>2123612.400000003</v>
+      </c>
+      <c r="C49">
+        <v>1123612.4</v>
+      </c>
+      <c r="D49">
+        <v>1000000</v>
+      </c>
+      <c r="E49">
+        <v>123612.3999999999</v>
+      </c>
+      <c r="F49">
+        <v>123612.3999999999</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>123612.4000000001</v>
+      </c>
+      <c r="I49">
+        <v>123612.4000000001</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B50">
+        <v>2123612.400000003</v>
+      </c>
+      <c r="C50">
+        <v>1123612.4</v>
+      </c>
+      <c r="D50">
+        <v>1000000</v>
+      </c>
+      <c r="E50">
+        <v>123612.3999999999</v>
+      </c>
+      <c r="F50">
+        <v>123612.3999999999</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>123612.4000000001</v>
+      </c>
+      <c r="I50">
+        <v>123612.4000000001</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B51">
+        <v>2123612.400000003</v>
+      </c>
+      <c r="C51">
+        <v>1123612.4</v>
+      </c>
+      <c r="D51">
+        <v>1000000</v>
+      </c>
+      <c r="E51">
+        <v>123612.3999999999</v>
+      </c>
+      <c r="F51">
+        <v>123612.3999999999</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>123612.4000000001</v>
+      </c>
+      <c r="I51">
+        <v>123612.4000000001</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B52">
+        <v>1225432.920000003</v>
+      </c>
+      <c r="C52">
+        <v>225432.92</v>
+      </c>
+      <c r="D52">
+        <v>1000000</v>
+      </c>
+      <c r="E52">
+        <v>123612.3999999999</v>
+      </c>
+      <c r="F52">
+        <v>123612.3999999999</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>143352.3800000001</v>
+      </c>
+      <c r="I52">
+        <v>143352.3800000001</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B53">
+        <v>2110547.820000004</v>
+      </c>
+      <c r="C53">
+        <v>1110547.82</v>
+      </c>
+      <c r="D53">
+        <v>1000000</v>
+      </c>
+      <c r="E53">
+        <v>133591.8699999999</v>
+      </c>
+      <c r="F53">
+        <v>133591.8699999999</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>134071.5700000001</v>
+      </c>
+      <c r="I53">
+        <v>134071.5700000001</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B54">
+        <v>2134735.770000004</v>
+      </c>
+      <c r="C54">
+        <v>1134735.77</v>
+      </c>
+      <c r="D54">
+        <v>1000000</v>
+      </c>
+      <c r="E54">
+        <v>134735.7699999999</v>
+      </c>
+      <c r="F54">
+        <v>134735.7699999999</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>134735.7700000001</v>
+      </c>
+      <c r="I54">
+        <v>134735.7700000001</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B55">
+        <v>2134735.770000004</v>
+      </c>
+      <c r="C55">
+        <v>1134735.77</v>
+      </c>
+      <c r="D55">
+        <v>1000000</v>
+      </c>
+      <c r="E55">
+        <v>134735.7699999999</v>
+      </c>
+      <c r="F55">
+        <v>134735.7699999999</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>134735.7700000001</v>
+      </c>
+      <c r="I55">
+        <v>134735.7700000001</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B56">
+        <v>2134735.770000004</v>
+      </c>
+      <c r="C56">
+        <v>1134735.77</v>
+      </c>
+      <c r="D56">
+        <v>1000000</v>
+      </c>
+      <c r="E56">
+        <v>134735.7699999999</v>
+      </c>
+      <c r="F56">
+        <v>134735.7699999999</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>134735.7700000001</v>
+      </c>
+      <c r="I56">
+        <v>134735.7700000001</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B57">
+        <v>1227473.130000003</v>
+      </c>
+      <c r="C57">
+        <v>227473.1300000004</v>
+      </c>
+      <c r="D57">
+        <v>1000000</v>
+      </c>
+      <c r="E57">
+        <v>134735.7699999999</v>
+      </c>
+      <c r="F57">
+        <v>134735.7699999999</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>147333.5600000001</v>
+      </c>
+      <c r="I57">
+        <v>147333.5600000001</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B58">
+        <v>2069008.020000003</v>
+      </c>
+      <c r="C58">
+        <v>1069008.02</v>
+      </c>
+      <c r="D58">
+        <v>1000000</v>
+      </c>
+      <c r="E58">
+        <v>138788.14</v>
+      </c>
+      <c r="F58">
+        <v>138788.14</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>138505.8500000001</v>
+      </c>
+      <c r="I58">
+        <v>138505.8500000001</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B59">
+        <v>2116380.820000003</v>
+      </c>
+      <c r="C59">
+        <v>1116380.820000001</v>
+      </c>
+      <c r="D59">
+        <v>1000000</v>
+      </c>
+      <c r="E59">
+        <v>139626.42</v>
+      </c>
+      <c r="F59">
+        <v>139626.42</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>139673.8600000001</v>
+      </c>
+      <c r="I59">
+        <v>139673.8600000001</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B60">
+        <v>2116380.820000003</v>
+      </c>
+      <c r="C60">
+        <v>1116380.820000001</v>
+      </c>
+      <c r="D60">
+        <v>1000000</v>
+      </c>
+      <c r="E60">
+        <v>139626.42</v>
+      </c>
+      <c r="F60">
+        <v>139626.42</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>139412.9400000001</v>
+      </c>
+      <c r="I60">
+        <v>139412.9400000001</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B61">
+        <v>2139478.170000003</v>
+      </c>
+      <c r="C61">
+        <v>1139478.170000001</v>
+      </c>
+      <c r="D61">
+        <v>1000000</v>
+      </c>
+      <c r="E61">
+        <v>139478.17</v>
+      </c>
+      <c r="F61">
+        <v>139478.17</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>139478.1700000001</v>
+      </c>
+      <c r="I61">
+        <v>139478.1700000001</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B62">
+        <v>1228203.380000004</v>
+      </c>
+      <c r="C62">
+        <v>228203.3800000007</v>
+      </c>
+      <c r="D62">
+        <v>1000000</v>
+      </c>
+      <c r="E62">
+        <v>139478.17</v>
+      </c>
+      <c r="F62">
+        <v>139478.17</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>165122.6800000001</v>
+      </c>
+      <c r="I62">
+        <v>165122.6800000001</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B63">
+        <v>2008758.850000004</v>
+      </c>
+      <c r="C63">
+        <v>1008758.850000001</v>
+      </c>
+      <c r="D63">
+        <v>1000000</v>
+      </c>
+      <c r="E63">
+        <v>172332.1099999999</v>
+      </c>
+      <c r="F63">
+        <v>172332.1099999999</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>174035.9200000002</v>
+      </c>
+      <c r="I63">
+        <v>174035.9200000002</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B64">
+        <v>2056001.730000004</v>
+      </c>
+      <c r="C64">
+        <v>1056001.730000001</v>
+      </c>
+      <c r="D64">
+        <v>1000000</v>
+      </c>
+      <c r="E64">
+        <v>172829.9999999999</v>
+      </c>
+      <c r="F64">
+        <v>172829.9999999999</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>174200.7100000002</v>
+      </c>
+      <c r="I64">
+        <v>174200.7100000002</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B65">
+        <v>2151019.570000005</v>
+      </c>
+      <c r="C65">
+        <v>1151019.570000001</v>
+      </c>
+      <c r="D65">
+        <v>1000000</v>
+      </c>
+      <c r="E65">
+        <v>174392.9199999999</v>
+      </c>
+      <c r="F65">
+        <v>174392.9199999999</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>174752.5100000002</v>
+      </c>
+      <c r="I65">
+        <v>174752.5100000002</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B66">
+        <v>2174556.370000005</v>
+      </c>
+      <c r="C66">
+        <v>1174556.370000001</v>
+      </c>
+      <c r="D66">
+        <v>1000000</v>
+      </c>
+      <c r="E66">
+        <v>174556.3699999999</v>
+      </c>
+      <c r="F66">
+        <v>174556.3699999999</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>174556.3700000002</v>
+      </c>
+      <c r="I66">
+        <v>174556.3700000002</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B67">
+        <v>1235282.040000004</v>
+      </c>
+      <c r="C67">
+        <v>235282.0400000012</v>
+      </c>
+      <c r="D67">
+        <v>1000000</v>
+      </c>
+      <c r="E67">
+        <v>174556.3699999999</v>
+      </c>
+      <c r="F67">
+        <v>174556.3699999999</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>196419.6800000002</v>
+      </c>
+      <c r="I67">
+        <v>196419.6800000002</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B68">
+        <v>1952368.190000004</v>
+      </c>
+      <c r="C68">
+        <v>952368.1900000011</v>
+      </c>
+      <c r="D68">
+        <v>1000000</v>
+      </c>
+      <c r="E68">
+        <v>193257.6399999999</v>
+      </c>
+      <c r="F68">
+        <v>193257.6399999999</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>196289.7300000001</v>
+      </c>
+      <c r="I68">
+        <v>196289.7300000001</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B69">
+        <v>2072991.380000004</v>
+      </c>
+      <c r="C69">
+        <v>1072991.380000001</v>
+      </c>
+      <c r="D69">
+        <v>1000000</v>
+      </c>
+      <c r="E69">
+        <v>193430.7899999999</v>
+      </c>
+      <c r="F69">
+        <v>193430.7899999999</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>193442.3900000001</v>
+      </c>
+      <c r="I69">
+        <v>193442.3900000001</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B70">
+        <v>2120338.530000004</v>
+      </c>
+      <c r="C70">
+        <v>1120338.530000001</v>
+      </c>
+      <c r="D70">
+        <v>1000000</v>
+      </c>
+      <c r="E70">
+        <v>192606.5499999999</v>
+      </c>
+      <c r="F70">
+        <v>192606.5499999999</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>193521.2200000001</v>
+      </c>
+      <c r="I70">
+        <v>193521.2200000001</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B71">
+        <v>2193474.960000005</v>
+      </c>
+      <c r="C71">
+        <v>1193474.960000001</v>
+      </c>
+      <c r="D71">
+        <v>1000000</v>
+      </c>
+      <c r="E71">
+        <v>193474.9599999999</v>
+      </c>
+      <c r="F71">
+        <v>193474.9599999999</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>193474.9600000001</v>
+      </c>
+      <c r="I71">
+        <v>193474.9600000001</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B72">
+        <v>1239009.810000005</v>
+      </c>
+      <c r="C72">
+        <v>239009.8100000016</v>
+      </c>
+      <c r="D72">
+        <v>1000000</v>
+      </c>
+      <c r="E72">
+        <v>193474.9599999999</v>
+      </c>
+      <c r="F72">
+        <v>193474.9599999999</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>229093.5300000001</v>
+      </c>
+      <c r="I72">
+        <v>229093.5300000001</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B73">
+        <v>1917821.210000004</v>
+      </c>
+      <c r="C73">
+        <v>917821.2100000017</v>
+      </c>
+      <c r="D73">
+        <v>1000000</v>
+      </c>
+      <c r="E73">
+        <v>211450.7099999999</v>
+      </c>
+      <c r="F73">
+        <v>211450.7099999999</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>213735.3200000002</v>
+      </c>
+      <c r="I73">
+        <v>213735.3200000002</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B74">
+        <v>2040341.020000004</v>
+      </c>
+      <c r="C74">
+        <v>1040341.020000002</v>
+      </c>
+      <c r="D74">
+        <v>1000000</v>
+      </c>
+      <c r="E74">
+        <v>211583.4899999999</v>
+      </c>
+      <c r="F74">
+        <v>211583.4899999999</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>214618.3100000002</v>
+      </c>
+      <c r="I74">
+        <v>214618.3100000002</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B75">
+        <v>2116212.690000005</v>
+      </c>
+      <c r="C75">
+        <v>1116212.690000002</v>
+      </c>
+      <c r="D75">
+        <v>1000000</v>
+      </c>
+      <c r="E75">
+        <v>214084.1499999999</v>
+      </c>
+      <c r="F75">
+        <v>214084.1499999999</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>215102.3500000002</v>
+      </c>
+      <c r="I75">
+        <v>215102.3500000002</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B76">
+        <v>2214889.800000004</v>
+      </c>
+      <c r="C76">
+        <v>1214889.800000002</v>
+      </c>
+      <c r="D76">
+        <v>1000000</v>
+      </c>
+      <c r="E76">
+        <v>214889.7999999999</v>
+      </c>
+      <c r="F76">
+        <v>214889.7999999999</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>214889.8000000002</v>
+      </c>
+      <c r="I76">
+        <v>214889.8000000002</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B77">
+        <v>1243120.910000005</v>
+      </c>
+      <c r="C77">
+        <v>243120.910000002</v>
+      </c>
+      <c r="D77">
+        <v>1000000</v>
+      </c>
+      <c r="E77">
+        <v>214889.7999999999</v>
+      </c>
+      <c r="F77">
+        <v>214889.7999999999</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>232833.3700000002</v>
+      </c>
+      <c r="I77">
+        <v>232833.3700000002</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B78">
+        <v>2138356.700000005</v>
+      </c>
+      <c r="C78">
+        <v>1138356.700000002</v>
+      </c>
+      <c r="D78">
+        <v>1000000</v>
+      </c>
+      <c r="E78">
+        <v>213115.8299999999</v>
+      </c>
+      <c r="F78">
+        <v>213115.8299999999</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>215079.7600000001</v>
+      </c>
+      <c r="I78">
+        <v>215079.7600000001</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B79">
+        <v>2216867.600000005</v>
+      </c>
+      <c r="C79">
+        <v>1216867.600000002</v>
+      </c>
+      <c r="D79">
+        <v>1000000</v>
+      </c>
+      <c r="E79">
+        <v>216867.5999999999</v>
+      </c>
+      <c r="F79">
+        <v>216867.5999999999</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>216867.6000000001</v>
+      </c>
+      <c r="I79">
+        <v>216867.6000000001</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B80">
+        <v>2216867.600000005</v>
+      </c>
+      <c r="C80">
+        <v>1216867.600000002</v>
+      </c>
+      <c r="D80">
+        <v>1000000</v>
+      </c>
+      <c r="E80">
+        <v>216867.5999999999</v>
+      </c>
+      <c r="F80">
+        <v>216867.5999999999</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>216867.6000000001</v>
+      </c>
+      <c r="I80">
+        <v>216867.6000000001</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B81">
+        <v>2216867.600000005</v>
+      </c>
+      <c r="C81">
+        <v>1216867.600000002</v>
+      </c>
+      <c r="D81">
+        <v>1000000</v>
+      </c>
+      <c r="E81">
+        <v>216867.5999999999</v>
+      </c>
+      <c r="F81">
+        <v>216867.5999999999</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>216867.6000000001</v>
+      </c>
+      <c r="I81">
+        <v>216867.6000000001</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B82">
+        <v>1277706.890000005</v>
+      </c>
+      <c r="C82">
+        <v>277706.8900000023</v>
+      </c>
+      <c r="D82">
+        <v>1000000</v>
+      </c>
+      <c r="E82">
+        <v>216867.5999999999</v>
+      </c>
+      <c r="F82">
+        <v>216867.5999999999</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>237533</v>
+      </c>
+      <c r="I82">
+        <v>237533</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B83">
+        <v>1769526.230000006</v>
+      </c>
+      <c r="C83">
+        <v>769526.2300000023</v>
+      </c>
+      <c r="D83">
+        <v>1000000</v>
+      </c>
+      <c r="E83">
+        <v>234532.4399999999</v>
+      </c>
+      <c r="F83">
+        <v>234532.4399999999</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>237953.3400000001</v>
+      </c>
+      <c r="I83">
+        <v>237953.3400000001</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B84">
+        <v>1940295.350000005</v>
+      </c>
+      <c r="C84">
+        <v>940295.3500000024</v>
+      </c>
+      <c r="D84">
+        <v>1000000</v>
+      </c>
+      <c r="E84">
+        <v>239793.7799999999</v>
+      </c>
+      <c r="F84">
+        <v>239793.7799999999</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>240049.1200000001</v>
+      </c>
+      <c r="I84">
+        <v>240049.1200000001</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B85">
+        <v>2013801.010000005</v>
+      </c>
+      <c r="C85">
+        <v>1013801.010000002</v>
+      </c>
+      <c r="D85">
+        <v>1000000</v>
+      </c>
+      <c r="E85">
+        <v>238425.1799999999</v>
+      </c>
+      <c r="F85">
+        <v>238425.1799999999</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>237252.3700000001</v>
+      </c>
+      <c r="I85">
+        <v>237252.3700000001</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B86">
+        <v>2239137.420000005</v>
+      </c>
+      <c r="C86">
+        <v>1239137.420000002</v>
+      </c>
+      <c r="D86">
+        <v>1000000</v>
+      </c>
+      <c r="E86">
+        <v>239137.4199999999</v>
+      </c>
+      <c r="F86">
+        <v>239137.4199999999</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>239137.4200000001</v>
+      </c>
+      <c r="I86">
+        <v>239137.4200000001</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B87">
+        <v>1282565.890000005</v>
+      </c>
+      <c r="C87">
+        <v>282565.8900000027</v>
+      </c>
+      <c r="D87">
+        <v>1000000</v>
+      </c>
+      <c r="E87">
+        <v>239137.4199999999</v>
+      </c>
+      <c r="F87">
+        <v>239137.4199999999</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>263440.5300000001</v>
+      </c>
+      <c r="I87">
+        <v>263440.5300000001</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B88">
+        <v>1743801.050000005</v>
+      </c>
+      <c r="C88">
+        <v>743801.0500000027</v>
+      </c>
+      <c r="D88">
+        <v>1000000</v>
+      </c>
+      <c r="E88">
+        <v>252058.1199999999</v>
+      </c>
+      <c r="F88">
+        <v>252058.1199999999</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>254071.5800000001</v>
+      </c>
+      <c r="I88">
+        <v>254071.5800000001</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B89">
+        <v>1999727.890000005</v>
+      </c>
+      <c r="C89">
+        <v>999727.8900000027</v>
+      </c>
+      <c r="D89">
+        <v>1000000</v>
+      </c>
+      <c r="E89">
+        <v>253864.1799999999</v>
+      </c>
+      <c r="F89">
+        <v>253864.1799999999</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>253627.0700000001</v>
+      </c>
+      <c r="I89">
+        <v>253627.0700000001</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B90">
+        <v>2051908.780000005</v>
+      </c>
+      <c r="C90">
+        <v>1051908.780000003</v>
+      </c>
+      <c r="D90">
+        <v>1000000</v>
+      </c>
+      <c r="E90">
+        <v>255216.1099999999</v>
+      </c>
+      <c r="F90">
+        <v>255216.1099999999</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>254541.67</v>
+      </c>
+      <c r="I90">
+        <v>254541.67</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B91">
+        <v>2254513.810000004</v>
+      </c>
+      <c r="C91">
+        <v>1254513.810000003</v>
+      </c>
+      <c r="D91">
+        <v>1000000</v>
+      </c>
+      <c r="E91">
+        <v>254513.8099999999</v>
+      </c>
+      <c r="F91">
+        <v>254513.8099999999</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>254513.81</v>
+      </c>
+      <c r="I91">
+        <v>254513.81</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B92">
+        <v>1273481.030000003</v>
+      </c>
+      <c r="C92">
+        <v>273481.0300000033</v>
+      </c>
+      <c r="D92">
+        <v>1000000</v>
+      </c>
+      <c r="E92">
+        <v>254513.8099999999</v>
+      </c>
+      <c r="F92">
+        <v>254513.8099999999</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>269395.72</v>
+      </c>
+      <c r="I92">
+        <v>269395.72</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B93">
+        <v>2078945.460000004</v>
+      </c>
+      <c r="C93">
+        <v>1078945.460000003</v>
+      </c>
+      <c r="D93">
+        <v>1000000</v>
+      </c>
+      <c r="E93">
+        <v>259057.5199999999</v>
+      </c>
+      <c r="F93">
+        <v>259057.5199999999</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>256052.7399999999</v>
+      </c>
+      <c r="I93">
+        <v>256052.7399999999</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B94">
+        <v>2128862.180000004</v>
+      </c>
+      <c r="C94">
+        <v>1128862.180000003</v>
+      </c>
+      <c r="D94">
+        <v>1000000</v>
+      </c>
+      <c r="E94">
+        <v>257511.3599999999</v>
+      </c>
+      <c r="F94">
+        <v>257511.3599999999</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>256048.8999999999</v>
+      </c>
+      <c r="I94">
+        <v>256048.8999999999</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B95">
+        <v>2153866.460000004</v>
+      </c>
+      <c r="C95">
+        <v>1153866.460000003</v>
+      </c>
+      <c r="D95">
+        <v>1000000</v>
+      </c>
+      <c r="E95">
+        <v>256783.0799999999</v>
+      </c>
+      <c r="F95">
+        <v>256783.0799999999</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>257098.9799999999</v>
+      </c>
+      <c r="I95">
+        <v>257098.9799999999</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B96">
+        <v>2256864.970000003</v>
+      </c>
+      <c r="C96">
+        <v>1256864.970000003</v>
+      </c>
+      <c r="D96">
+        <v>1000000</v>
+      </c>
+      <c r="E96">
+        <v>256864.9699999999</v>
+      </c>
+      <c r="F96">
+        <v>256864.9699999999</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>256864.9699999999</v>
+      </c>
+      <c r="I96">
+        <v>256864.9699999999</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B97">
+        <v>1251588.540000003</v>
+      </c>
+      <c r="C97">
+        <v>251588.5400000028</v>
+      </c>
+      <c r="D97">
+        <v>1000000</v>
+      </c>
+      <c r="E97">
+        <v>256864.9699999999</v>
+      </c>
+      <c r="F97">
+        <v>256864.9699999999</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>270099.6699999998</v>
+      </c>
+      <c r="I97">
+        <v>270099.6699999998</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B98">
+        <v>1884566.690000004</v>
+      </c>
+      <c r="C98">
+        <v>884566.6900000027</v>
+      </c>
+      <c r="D98">
+        <v>1000000</v>
+      </c>
+      <c r="E98">
+        <v>271259.0999999999</v>
+      </c>
+      <c r="F98">
+        <v>271259.0999999999</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>271024.3199999997</v>
+      </c>
+      <c r="I98">
+        <v>271024.3199999997</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B99">
+        <v>2017712.100000004</v>
+      </c>
+      <c r="C99">
+        <v>1017712.100000003</v>
+      </c>
+      <c r="D99">
+        <v>1000000</v>
+      </c>
+      <c r="E99">
+        <v>275498.9499999998</v>
+      </c>
+      <c r="F99">
+        <v>275498.9499999998</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>281136.5899999996</v>
+      </c>
+      <c r="I99">
+        <v>281136.5899999996</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B100">
+        <v>2180119.350000004</v>
+      </c>
+      <c r="C100">
+        <v>1180119.350000003</v>
+      </c>
+      <c r="D100">
+        <v>1000000</v>
+      </c>
+      <c r="E100">
+        <v>283235.7799999999</v>
+      </c>
+      <c r="F100">
+        <v>283235.7799999999</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>285705.6199999996</v>
+      </c>
+      <c r="I100">
+        <v>285705.6199999996</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B101">
+        <v>2285984.680000004</v>
+      </c>
+      <c r="C101">
+        <v>1285984.680000002</v>
+      </c>
+      <c r="D101">
+        <v>1000000</v>
+      </c>
+      <c r="E101">
+        <v>285984.6799999999</v>
+      </c>
+      <c r="F101">
+        <v>285984.6799999999</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>285984.6799999996</v>
+      </c>
+      <c r="I101">
+        <v>285984.6799999996</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B102">
+        <v>1257422.230000004</v>
+      </c>
+      <c r="C102">
+        <v>257422.2300000022</v>
+      </c>
+      <c r="D102">
+        <v>1000000</v>
+      </c>
+      <c r="E102">
+        <v>285984.6799999999</v>
+      </c>
+      <c r="F102">
+        <v>285984.6799999999</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>319099.0999999996</v>
+      </c>
+      <c r="I102">
+        <v>319099.0999999996</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B103">
+        <v>2062948.930000004</v>
+      </c>
+      <c r="C103">
+        <v>1062948.930000002</v>
+      </c>
+      <c r="D103">
+        <v>1000000</v>
+      </c>
+      <c r="E103">
+        <v>300240.1599999998</v>
+      </c>
+      <c r="F103">
+        <v>300240.1599999998</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>300125.0699999995</v>
+      </c>
+      <c r="I103">
+        <v>300125.0699999995</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B104">
+        <v>2143845.700000004</v>
+      </c>
+      <c r="C104">
+        <v>1143845.700000002</v>
+      </c>
+      <c r="D104">
+        <v>1000000</v>
+      </c>
+      <c r="E104">
+        <v>302104.1799999998</v>
+      </c>
+      <c r="F104">
+        <v>302104.1799999998</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>300999.6099999996</v>
+      </c>
+      <c r="I104">
+        <v>300999.6099999996</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B105">
+        <v>2169419.600000004</v>
+      </c>
+      <c r="C105">
+        <v>1169419.600000002</v>
+      </c>
+      <c r="D105">
+        <v>1000000</v>
+      </c>
+      <c r="E105">
+        <v>301302.6099999998</v>
+      </c>
+      <c r="F105">
+        <v>301302.6099999998</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>300700.8599999995</v>
+      </c>
+      <c r="I105">
+        <v>300700.8599999995</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B106">
+        <v>2300747.510000004</v>
+      </c>
+      <c r="C106">
+        <v>1300747.510000002</v>
+      </c>
+      <c r="D106">
+        <v>1000000</v>
+      </c>
+      <c r="E106">
+        <v>300747.5099999998</v>
+      </c>
+      <c r="F106">
+        <v>300747.5099999998</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>300747.5099999995</v>
+      </c>
+      <c r="I106">
+        <v>300747.5099999995</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B107">
+        <v>1286896.520000004</v>
+      </c>
+      <c r="C107">
+        <v>286896.5200000016</v>
+      </c>
+      <c r="D107">
+        <v>1000000</v>
+      </c>
+      <c r="E107">
+        <v>300747.5099999998</v>
+      </c>
+      <c r="F107">
+        <v>300747.5099999998</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>325154.8699999994</v>
+      </c>
+      <c r="I107">
+        <v>325154.8699999994</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B108">
+        <v>2180530.270000003</v>
+      </c>
+      <c r="C108">
+        <v>1180530.270000002</v>
+      </c>
+      <c r="D108">
+        <v>1000000</v>
+      </c>
+      <c r="E108">
+        <v>313924.0999999997</v>
+      </c>
+      <c r="F108">
+        <v>313924.0999999997</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>315784.9499999995</v>
+      </c>
+      <c r="I108">
+        <v>315784.9499999995</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B109">
+        <v>2208555.400000003</v>
+      </c>
+      <c r="C109">
+        <v>1208555.400000002</v>
+      </c>
+      <c r="D109">
+        <v>1000000</v>
+      </c>
+      <c r="E109">
+        <v>315270.4399999998</v>
+      </c>
+      <c r="F109">
+        <v>315270.4399999998</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>315506.4499999995</v>
+      </c>
+      <c r="I109">
+        <v>315506.4499999995</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B110">
+        <v>2208555.400000003</v>
+      </c>
+      <c r="C110">
+        <v>1208555.400000002</v>
+      </c>
+      <c r="D110">
+        <v>1000000</v>
+      </c>
+      <c r="E110">
+        <v>315270.4399999998</v>
+      </c>
+      <c r="F110">
+        <v>315270.4399999998</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>315696.1199999995</v>
+      </c>
+      <c r="I110">
+        <v>315696.1199999995</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B111">
+        <v>2315951.850000003</v>
+      </c>
+      <c r="C111">
+        <v>1315951.850000002</v>
+      </c>
+      <c r="D111">
+        <v>1000000</v>
+      </c>
+      <c r="E111">
+        <v>315951.8499999998</v>
+      </c>
+      <c r="F111">
+        <v>315951.8499999998</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>315951.8499999996</v>
+      </c>
+      <c r="I111">
+        <v>315951.8499999996</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B112">
+        <v>1263764.570000003</v>
+      </c>
+      <c r="C112">
+        <v>263764.5700000016</v>
+      </c>
+      <c r="D112">
+        <v>1000000</v>
+      </c>
+      <c r="E112">
+        <v>315951.8499999998</v>
+      </c>
+      <c r="F112">
+        <v>315951.8499999998</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>353577.6999999994</v>
+      </c>
+      <c r="I112">
+        <v>353577.6999999994</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B113">
+        <v>2009918.440000003</v>
+      </c>
+      <c r="C113">
+        <v>1009918.440000002</v>
+      </c>
+      <c r="D113">
+        <v>1000000</v>
+      </c>
+      <c r="E113">
+        <v>333635.7499999997</v>
+      </c>
+      <c r="F113">
+        <v>333635.7499999997</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>337678.1599999992</v>
+      </c>
+      <c r="I113">
+        <v>337678.1599999992</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B114">
+        <v>2093580.100000003</v>
+      </c>
+      <c r="C114">
+        <v>1093580.100000002</v>
+      </c>
+      <c r="D114">
+        <v>1000000</v>
+      </c>
+      <c r="E114">
+        <v>336334.9899999997</v>
+      </c>
+      <c r="F114">
+        <v>336334.9899999997</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>339665.6199999991</v>
+      </c>
+      <c r="I114">
+        <v>339665.6199999991</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B115">
+        <v>2282593.910000003</v>
+      </c>
+      <c r="C115">
+        <v>1282593.910000002</v>
+      </c>
+      <c r="D115">
+        <v>1000000</v>
+      </c>
+      <c r="E115">
+        <v>336545.0699999997</v>
+      </c>
+      <c r="F115">
+        <v>336545.0699999997</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>337349.8499999991</v>
+      </c>
+      <c r="I115">
+        <v>337349.8499999991</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B116">
+        <v>2337381.690000003</v>
+      </c>
+      <c r="C116">
+        <v>1337381.690000002</v>
+      </c>
+      <c r="D116">
+        <v>1000000</v>
+      </c>
+      <c r="E116">
+        <v>337381.6899999997</v>
+      </c>
+      <c r="F116">
+        <v>337381.6899999997</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>337381.6899999991</v>
+      </c>
+      <c r="I116">
+        <v>337381.6899999991</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B117">
+        <v>1267927.800000004</v>
+      </c>
+      <c r="C117">
+        <v>267927.8000000015</v>
+      </c>
+      <c r="D117">
+        <v>1000000</v>
+      </c>
+      <c r="E117">
+        <v>337381.6899999997</v>
+      </c>
+      <c r="F117">
+        <v>337381.6899999997</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>356673.9199999991</v>
+      </c>
+      <c r="I117">
+        <v>356673.9199999991</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B118">
+        <v>2034447.980000004</v>
+      </c>
+      <c r="C118">
+        <v>1034447.980000002</v>
+      </c>
+      <c r="D118">
+        <v>1000000</v>
+      </c>
+      <c r="E118">
+        <v>363508.2299999996</v>
+      </c>
+      <c r="F118">
+        <v>363508.2299999996</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>367989.8999999992</v>
+      </c>
+      <c r="I118">
+        <v>367989.8999999992</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B119">
+        <v>2229176.390000003</v>
+      </c>
+      <c r="C119">
+        <v>1229176.390000002</v>
+      </c>
+      <c r="D119">
+        <v>1000000</v>
+      </c>
+      <c r="E119">
+        <v>366319.1399999996</v>
+      </c>
+      <c r="F119">
+        <v>366319.1399999996</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>367722.7899999992</v>
+      </c>
+      <c r="I119">
+        <v>367722.7899999992</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B120">
+        <v>2285111.450000003</v>
+      </c>
+      <c r="C120">
+        <v>1285111.450000002</v>
+      </c>
+      <c r="D120">
+        <v>1000000</v>
+      </c>
+      <c r="E120">
+        <v>367390.6499999996</v>
+      </c>
+      <c r="F120">
+        <v>367390.6499999996</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>367966.5499999991</v>
+      </c>
+      <c r="I120">
+        <v>367966.5499999991</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B121">
+        <v>2367955.040000003</v>
+      </c>
+      <c r="C121">
+        <v>1367955.040000002</v>
+      </c>
+      <c r="D121">
+        <v>1000000</v>
+      </c>
+      <c r="E121">
+        <v>367955.0399999996</v>
+      </c>
+      <c r="F121">
+        <v>367955.0399999996</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>367955.0399999992</v>
+      </c>
+      <c r="I121">
+        <v>367955.0399999992</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B122">
+        <v>1273947.200000003</v>
+      </c>
+      <c r="C122">
+        <v>273947.2000000015</v>
+      </c>
+      <c r="D122">
+        <v>1000000</v>
+      </c>
+      <c r="E122">
+        <v>367955.0399999996</v>
+      </c>
+      <c r="F122">
+        <v>367955.0399999996</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>434864.5999999993</v>
+      </c>
+      <c r="I122">
+        <v>434864.5999999993</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B123">
+        <v>2422655.590000003</v>
+      </c>
+      <c r="C123">
+        <v>1422655.590000001</v>
+      </c>
+      <c r="D123">
+        <v>1000000</v>
+      </c>
+      <c r="E123">
+        <v>422655.5899999997</v>
+      </c>
+      <c r="F123">
+        <v>422655.5899999997</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>422655.5899999992</v>
+      </c>
+      <c r="I123">
+        <v>422655.5899999992</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B124">
+        <v>2422655.590000003</v>
+      </c>
+      <c r="C124">
+        <v>1422655.590000001</v>
+      </c>
+      <c r="D124">
+        <v>1000000</v>
+      </c>
+      <c r="E124">
+        <v>422655.5899999997</v>
+      </c>
+      <c r="F124">
+        <v>422655.5899999997</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>422655.5899999992</v>
+      </c>
+      <c r="I124">
+        <v>422655.5899999992</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B125">
+        <v>2422655.590000003</v>
+      </c>
+      <c r="C125">
+        <v>1422655.590000001</v>
+      </c>
+      <c r="D125">
+        <v>1000000</v>
+      </c>
+      <c r="E125">
+        <v>422655.5899999997</v>
+      </c>
+      <c r="F125">
+        <v>422655.5899999997</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>422655.5899999992</v>
+      </c>
+      <c r="I125">
+        <v>422655.5899999992</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B126">
+        <v>2422655.590000003</v>
+      </c>
+      <c r="C126">
+        <v>1422655.590000001</v>
+      </c>
+      <c r="D126">
+        <v>1000000</v>
+      </c>
+      <c r="E126">
+        <v>422655.5899999997</v>
+      </c>
+      <c r="F126">
+        <v>422655.5899999997</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>422655.5899999992</v>
+      </c>
+      <c r="I126">
+        <v>422655.5899999992</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B127">
+        <v>1284998.110000003</v>
+      </c>
+      <c r="C127">
+        <v>284998.1100000014</v>
+      </c>
+      <c r="D127">
+        <v>1000000</v>
+      </c>
+      <c r="E127">
+        <v>422655.5899999997</v>
+      </c>
+      <c r="F127">
+        <v>422655.5899999997</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>480887.6799999994</v>
+      </c>
+      <c r="I127">
+        <v>480887.6799999994</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B128">
+        <v>2458117.880000003</v>
+      </c>
+      <c r="C128">
+        <v>1458117.880000001</v>
+      </c>
+      <c r="D128">
+        <v>1000000</v>
+      </c>
+      <c r="E128">
+        <v>458117.8799999997</v>
+      </c>
+      <c r="F128">
+        <v>458117.8799999997</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>458117.8799999993</v>
+      </c>
+      <c r="I128">
+        <v>458117.8799999993</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B129">
+        <v>2458117.880000003</v>
+      </c>
+      <c r="C129">
+        <v>1458117.880000001</v>
+      </c>
+      <c r="D129">
+        <v>1000000</v>
+      </c>
+      <c r="E129">
+        <v>458117.8799999997</v>
+      </c>
+      <c r="F129">
+        <v>458117.8799999997</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>458117.8799999993</v>
+      </c>
+      <c r="I129">
+        <v>458117.8799999993</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B130">
+        <v>2458117.880000003</v>
+      </c>
+      <c r="C130">
+        <v>1458117.880000001</v>
+      </c>
+      <c r="D130">
+        <v>1000000</v>
+      </c>
+      <c r="E130">
+        <v>458117.8799999997</v>
+      </c>
+      <c r="F130">
+        <v>458117.8799999997</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>458117.8799999993</v>
+      </c>
+      <c r="I130">
+        <v>458117.8799999993</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B131">
+        <v>2458117.880000003</v>
+      </c>
+      <c r="C131">
+        <v>1458117.880000001</v>
+      </c>
+      <c r="D131">
+        <v>1000000</v>
+      </c>
+      <c r="E131">
+        <v>458117.8799999997</v>
+      </c>
+      <c r="F131">
+        <v>458117.8799999997</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>458117.8799999993</v>
+      </c>
+      <c r="I131">
+        <v>458117.8799999993</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B132">
+        <v>1291831.110000002</v>
+      </c>
+      <c r="C132">
+        <v>291831.1100000009</v>
+      </c>
+      <c r="D132">
+        <v>1000000</v>
+      </c>
+      <c r="E132">
+        <v>458117.8799999997</v>
+      </c>
+      <c r="F132">
+        <v>458117.8799999997</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>531303.6699999992</v>
+      </c>
+      <c r="I132">
+        <v>531303.6699999992</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B133">
+        <v>2300435.220000002</v>
+      </c>
+      <c r="C133">
+        <v>1300435.220000001</v>
+      </c>
+      <c r="D133">
+        <v>1000000</v>
+      </c>
+      <c r="E133">
+        <v>499556.8699999997</v>
+      </c>
+      <c r="F133">
+        <v>499556.8699999997</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>502993.6399999993</v>
+      </c>
+      <c r="I133">
+        <v>502993.6399999993</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B134">
+        <v>2390054.970000002</v>
+      </c>
+      <c r="C134">
+        <v>1390054.970000001</v>
+      </c>
+      <c r="D134">
+        <v>1000000</v>
+      </c>
+      <c r="E134">
+        <v>503836.6299999997</v>
+      </c>
+      <c r="F134">
+        <v>503836.6299999997</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>505958.1499999992</v>
+      </c>
+      <c r="I134">
+        <v>505958.1499999992</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B135">
+        <v>2503252.050000002</v>
+      </c>
+      <c r="C135">
+        <v>1503252.050000001</v>
+      </c>
+      <c r="D135">
+        <v>1000000</v>
+      </c>
+      <c r="E135">
+        <v>503252.0499999997</v>
+      </c>
+      <c r="F135">
+        <v>503252.0499999997</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>503252.0499999993</v>
+      </c>
+      <c r="I135">
+        <v>503252.0499999993</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B136">
+        <v>2503252.050000002</v>
+      </c>
+      <c r="C136">
+        <v>1503252.050000001</v>
+      </c>
+      <c r="D136">
+        <v>1000000</v>
+      </c>
+      <c r="E136">
+        <v>503252.0499999997</v>
+      </c>
+      <c r="F136">
+        <v>503252.0499999997</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>503252.0499999993</v>
+      </c>
+      <c r="I136">
+        <v>503252.0499999993</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B137">
+        <v>1301187.010000002</v>
+      </c>
+      <c r="C137">
+        <v>301187.0100000012</v>
+      </c>
+      <c r="D137">
+        <v>1000000</v>
+      </c>
+      <c r="E137">
+        <v>503252.0499999997</v>
+      </c>
+      <c r="F137">
+        <v>503252.0499999997</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>526749.4399999995</v>
+      </c>
+      <c r="I137">
+        <v>526749.4399999995</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B138">
+        <v>2115051.160000002</v>
+      </c>
+      <c r="C138">
+        <v>1115051.160000001</v>
+      </c>
+      <c r="D138">
+        <v>1000000</v>
+      </c>
+      <c r="E138">
+        <v>525524.0199999997</v>
+      </c>
+      <c r="F138">
+        <v>525524.0199999997</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>530760.7399999995</v>
+      </c>
+      <c r="I138">
+        <v>530760.7399999995</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B139">
+        <v>2419968.840000002</v>
+      </c>
+      <c r="C139">
+        <v>1419968.840000001</v>
+      </c>
+      <c r="D139">
+        <v>1000000</v>
+      </c>
+      <c r="E139">
+        <v>537262.2399999996</v>
+      </c>
+      <c r="F139">
+        <v>537262.2399999996</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>539965.6499999999</v>
+      </c>
+      <c r="I139">
+        <v>539965.6499999999</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B140">
+        <v>2450746.180000002</v>
+      </c>
+      <c r="C140">
+        <v>1450746.180000001</v>
+      </c>
+      <c r="D140">
+        <v>1000000</v>
+      </c>
+      <c r="E140">
+        <v>538727.4399999996</v>
+      </c>
+      <c r="F140">
+        <v>538727.4399999996</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>539505.52</v>
+      </c>
+      <c r="I140">
+        <v>539505.52</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B141">
+        <v>2509494.540000002</v>
+      </c>
+      <c r="C141">
+        <v>1509494.540000001</v>
+      </c>
+      <c r="D141">
+        <v>1000000</v>
+      </c>
+      <c r="E141">
+        <v>538824.2999999996</v>
+      </c>
+      <c r="F141">
+        <v>538824.2999999996</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>539539.66</v>
+      </c>
+      <c r="I141">
+        <v>539539.66</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B142">
+        <v>1302469.130000002</v>
+      </c>
+      <c r="C142">
+        <v>302469.1300000004</v>
+      </c>
+      <c r="D142">
+        <v>1000000</v>
+      </c>
+      <c r="E142">
+        <v>538824.2999999996</v>
+      </c>
+      <c r="F142">
+        <v>538824.2999999996</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>603811.8100000003</v>
+      </c>
+      <c r="I142">
+        <v>603811.8100000003</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B143">
+        <v>2462290.650000002</v>
+      </c>
+      <c r="C143">
+        <v>1462290.65</v>
+      </c>
+      <c r="D143">
+        <v>1000000</v>
+      </c>
+      <c r="E143">
+        <v>579973.3199999996</v>
+      </c>
+      <c r="F143">
+        <v>579973.3199999996</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>581411.08</v>
+      </c>
+      <c r="I143">
+        <v>581411.08</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B144">
+        <v>2522211.060000002</v>
+      </c>
+      <c r="C144">
+        <v>1522211.06</v>
+      </c>
+      <c r="D144">
+        <v>1000000</v>
+      </c>
+      <c r="E144">
+        <v>580988.7299999996</v>
+      </c>
+      <c r="F144">
+        <v>580988.7299999996</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>582889.3</v>
+      </c>
+      <c r="I144">
+        <v>582889.3</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B145">
+        <v>2522211.060000002</v>
+      </c>
+      <c r="C145">
+        <v>1522211.06</v>
+      </c>
+      <c r="D145">
+        <v>1000000</v>
+      </c>
+      <c r="E145">
+        <v>580988.7299999996</v>
+      </c>
+      <c r="F145">
+        <v>580988.7299999996</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>582433.4500000001</v>
+      </c>
+      <c r="I145">
+        <v>582433.4500000001</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B146">
+        <v>2583359.790000002</v>
+      </c>
+      <c r="C146">
+        <v>1583359.79</v>
+      </c>
+      <c r="D146">
+        <v>1000000</v>
+      </c>
+      <c r="E146">
+        <v>583359.7899999997</v>
+      </c>
+      <c r="F146">
+        <v>583359.7899999997</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>583359.7900000002</v>
+      </c>
+      <c r="I146">
+        <v>583359.7900000002</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B147">
+        <v>1317096.920000002</v>
+      </c>
+      <c r="C147">
+        <v>317096.9200000004</v>
+      </c>
+      <c r="D147">
+        <v>1000000</v>
+      </c>
+      <c r="E147">
+        <v>583359.7899999997</v>
+      </c>
+      <c r="F147">
+        <v>583359.7899999997</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>632954.3100000005</v>
+      </c>
+      <c r="I147">
+        <v>632954.3100000005</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B148">
+        <v>2479630.850000002</v>
+      </c>
+      <c r="C148">
+        <v>1479630.850000001</v>
+      </c>
+      <c r="D148">
+        <v>1000000</v>
+      </c>
+      <c r="E148">
+        <v>603186.6999999996</v>
+      </c>
+      <c r="F148">
+        <v>603186.6999999996</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>602218.8300000005</v>
+      </c>
+      <c r="I148">
+        <v>602218.8300000005</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B149">
+        <v>2599507.660000002</v>
+      </c>
+      <c r="C149">
+        <v>1599507.660000001</v>
+      </c>
+      <c r="D149">
+        <v>1000000</v>
+      </c>
+      <c r="E149">
+        <v>599507.6599999997</v>
+      </c>
+      <c r="F149">
+        <v>599507.6599999997</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>599507.6600000005</v>
+      </c>
+      <c r="I149">
+        <v>599507.6600000005</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B150">
+        <v>2599507.660000002</v>
+      </c>
+      <c r="C150">
+        <v>1599507.660000001</v>
+      </c>
+      <c r="D150">
+        <v>1000000</v>
+      </c>
+      <c r="E150">
+        <v>599507.6599999997</v>
+      </c>
+      <c r="F150">
+        <v>599507.6599999997</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>599507.6600000005</v>
+      </c>
+      <c r="I150">
+        <v>599507.6600000005</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B151">
+        <v>2599507.660000002</v>
+      </c>
+      <c r="C151">
+        <v>1599507.660000001</v>
+      </c>
+      <c r="D151">
+        <v>1000000</v>
+      </c>
+      <c r="E151">
+        <v>599507.6599999997</v>
+      </c>
+      <c r="F151">
+        <v>599507.6599999997</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>599507.6600000005</v>
+      </c>
+      <c r="I151">
+        <v>599507.6600000005</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B152">
+        <v>1320242.060000002</v>
+      </c>
+      <c r="C152">
+        <v>320242.0600000003</v>
+      </c>
+      <c r="D152">
+        <v>1000000</v>
+      </c>
+      <c r="E152">
+        <v>599507.6599999997</v>
+      </c>
+      <c r="F152">
+        <v>599507.6599999997</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>635334.7700000003</v>
+      </c>
+      <c r="I152">
+        <v>635334.7700000003</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B153">
+        <v>2254882.970000002</v>
+      </c>
+      <c r="C153">
+        <v>1254882.97</v>
+      </c>
+      <c r="D153">
+        <v>1000000</v>
+      </c>
+      <c r="E153">
+        <v>629333.0699999997</v>
+      </c>
+      <c r="F153">
+        <v>629333.0699999997</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>629784.4300000003</v>
+      </c>
+      <c r="I153">
+        <v>629784.4300000003</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B154">
+        <v>2377351.090000002</v>
+      </c>
+      <c r="C154">
+        <v>1377351.09</v>
+      </c>
+      <c r="D154">
+        <v>1000000</v>
+      </c>
+      <c r="E154">
+        <v>627006.8999999997</v>
+      </c>
+      <c r="F154">
+        <v>627006.8999999997</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>627138.0900000002</v>
+      </c>
+      <c r="I154">
+        <v>627138.0900000002</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B155">
+        <v>2468714.620000002</v>
+      </c>
+      <c r="C155">
+        <v>1468714.62</v>
+      </c>
+      <c r="D155">
+        <v>1000000</v>
+      </c>
+      <c r="E155">
+        <v>624748.8299999996</v>
+      </c>
+      <c r="F155">
+        <v>624748.8299999996</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>623071.3900000001</v>
+      </c>
+      <c r="I155">
+        <v>623071.3900000001</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B156">
+        <v>2623456.640000002</v>
+      </c>
+      <c r="C156">
+        <v>1623456.64</v>
+      </c>
+      <c r="D156">
+        <v>1000000</v>
+      </c>
+      <c r="E156">
+        <v>623456.6399999995</v>
+      </c>
+      <c r="F156">
+        <v>623456.6399999995</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>623456.6400000002</v>
+      </c>
+      <c r="I156">
+        <v>623456.6400000002</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B157">
+        <v>1325180.990000003</v>
+      </c>
+      <c r="C157">
+        <v>325180.99</v>
+      </c>
+      <c r="D157">
+        <v>1000000</v>
+      </c>
+      <c r="E157">
+        <v>623456.6399999995</v>
+      </c>
+      <c r="F157">
+        <v>623456.6399999995</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>637796.4000000006</v>
+      </c>
+      <c r="I157">
+        <v>637796.4000000006</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B158">
+        <v>2030986.740000003</v>
+      </c>
+      <c r="C158">
+        <v>1030986.74</v>
+      </c>
+      <c r="D158">
+        <v>1000000</v>
+      </c>
+      <c r="E158">
+        <v>632564.0999999994</v>
+      </c>
+      <c r="F158">
+        <v>632564.0999999994</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>631368.8800000009</v>
+      </c>
+      <c r="I158">
+        <v>631368.8800000009</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B159">
+        <v>2468004.520000002</v>
+      </c>
+      <c r="C159">
+        <v>1468004.52</v>
+      </c>
+      <c r="D159">
+        <v>1000000</v>
+      </c>
+      <c r="E159">
+        <v>626173.5699999995</v>
+      </c>
+      <c r="F159">
+        <v>626173.5699999995</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>623726.1100000009</v>
+      </c>
+      <c r="I159">
+        <v>623726.1100000009</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B160">
+        <v>2499089.140000002</v>
+      </c>
+      <c r="C160">
+        <v>1499089.140000001</v>
+      </c>
+      <c r="D160">
+        <v>1000000</v>
+      </c>
+      <c r="E160">
+        <v>625586.0599999995</v>
+      </c>
+      <c r="F160">
+        <v>625586.0599999995</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>623918.070000001</v>
+      </c>
+      <c r="I160">
+        <v>623918.070000001</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B161">
+        <v>2624187.040000002</v>
+      </c>
+      <c r="C161">
+        <v>1624187.040000001</v>
+      </c>
+      <c r="D161">
+        <v>1000000</v>
+      </c>
+      <c r="E161">
+        <v>624187.0399999995</v>
+      </c>
+      <c r="F161">
+        <v>624187.0399999995</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>624187.040000001</v>
+      </c>
+      <c r="I161">
+        <v>624187.040000001</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B162">
+        <v>1325403.180000003</v>
+      </c>
+      <c r="C162">
+        <v>325403.1800000006</v>
+      </c>
+      <c r="D162">
+        <v>1000000</v>
+      </c>
+      <c r="E162">
+        <v>624187.0399999995</v>
+      </c>
+      <c r="F162">
+        <v>624187.0399999995</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>636878.1100000014</v>
+      </c>
+      <c r="I162">
+        <v>636878.1100000014</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B163">
+        <v>2218896.130000003</v>
+      </c>
+      <c r="C163">
+        <v>1218896.13</v>
+      </c>
+      <c r="D163">
+        <v>1000000</v>
+      </c>
+      <c r="E163">
+        <v>630839.3999999996</v>
+      </c>
+      <c r="F163">
+        <v>630839.3999999996</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>632875.6700000013</v>
+      </c>
+      <c r="I163">
+        <v>632875.6700000013</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B164">
+        <v>2252166.640000003</v>
+      </c>
+      <c r="C164">
+        <v>1252166.64</v>
+      </c>
+      <c r="D164">
+        <v>1000000</v>
+      </c>
+      <c r="E164">
+        <v>632425.5299999996</v>
+      </c>
+      <c r="F164">
+        <v>632425.5299999996</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>634664.1600000014</v>
+      </c>
+      <c r="I164">
+        <v>634664.1600000014</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B165">
+        <v>2376226.080000003</v>
+      </c>
+      <c r="C165">
+        <v>1376226.08</v>
+      </c>
+      <c r="D165">
+        <v>1000000</v>
+      </c>
+      <c r="E165">
+        <v>629736.8899999995</v>
+      </c>
+      <c r="F165">
+        <v>629736.8899999995</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>630707.0400000014</v>
+      </c>
+      <c r="I165">
+        <v>630707.0400000014</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B166">
+        <v>2596283.260000003</v>
+      </c>
+      <c r="C166">
+        <v>1596283.26</v>
+      </c>
+      <c r="D166">
+        <v>1000000</v>
+      </c>
+      <c r="E166">
+        <v>627971.9799999995</v>
+      </c>
+      <c r="F166">
+        <v>627971.9799999995</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>628139.3500000015</v>
+      </c>
+      <c r="I166">
+        <v>628139.3500000015</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B167">
+        <v>1319677.440000003</v>
+      </c>
+      <c r="C167">
+        <v>319677.4400000002</v>
+      </c>
+      <c r="D167">
+        <v>1000000</v>
+      </c>
+      <c r="E167">
+        <v>627971.9799999995</v>
+      </c>
+      <c r="F167">
+        <v>627971.9799999995</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>637754.4700000016</v>
+      </c>
+      <c r="I167">
+        <v>637754.4700000016</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B168">
+        <v>2516238.940000003</v>
+      </c>
+      <c r="C168">
+        <v>1516238.940000001</v>
+      </c>
+      <c r="D168">
+        <v>1000000</v>
+      </c>
+      <c r="E168">
+        <v>640814.0999999994</v>
+      </c>
+      <c r="F168">
+        <v>640814.0999999994</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>642616.2200000014</v>
+      </c>
+      <c r="I168">
+        <v>642616.2200000014</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B169">
+        <v>2546448.100000003</v>
+      </c>
+      <c r="C169">
+        <v>1546448.100000001</v>
+      </c>
+      <c r="D169">
+        <v>1000000</v>
+      </c>
+      <c r="E169">
+        <v>639882.5399999993</v>
+      </c>
+      <c r="F169">
+        <v>639882.5399999993</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>641097.0200000015</v>
+      </c>
+      <c r="I169">
+        <v>641097.0200000015</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B170">
+        <v>2607681.530000003</v>
+      </c>
+      <c r="C170">
+        <v>1607681.530000001</v>
+      </c>
+      <c r="D170">
+        <v>1000000</v>
+      </c>
+      <c r="E170">
+        <v>638827.6899999994</v>
+      </c>
+      <c r="F170">
+        <v>638827.6899999994</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>639025.1300000015</v>
+      </c>
+      <c r="I170">
+        <v>639025.1300000015</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B171">
+        <v>2638630.250000003</v>
+      </c>
+      <c r="C171">
+        <v>1638630.250000001</v>
+      </c>
+      <c r="D171">
+        <v>1000000</v>
+      </c>
+      <c r="E171">
+        <v>638630.2499999994</v>
+      </c>
+      <c r="F171">
+        <v>638630.2499999994</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>638630.2500000015</v>
+      </c>
+      <c r="I171">
+        <v>638630.2500000015</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B172">
+        <v>1328013.720000003</v>
+      </c>
+      <c r="C172">
+        <v>328013.7200000008</v>
+      </c>
+      <c r="D172">
+        <v>1000000</v>
+      </c>
+      <c r="E172">
+        <v>638630.2499999994</v>
+      </c>
+      <c r="F172">
+        <v>638630.2499999994</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>696045.8200000015</v>
+      </c>
+      <c r="I172">
+        <v>696045.8200000015</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B173">
+        <v>2375692.020000003</v>
+      </c>
+      <c r="C173">
+        <v>1375692.020000001</v>
+      </c>
+      <c r="D173">
+        <v>1000000</v>
+      </c>
+      <c r="E173">
+        <v>663361.1499999993</v>
+      </c>
+      <c r="F173">
+        <v>663361.1499999993</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>664738.780000001</v>
+      </c>
+      <c r="I173">
+        <v>664738.780000001</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B174">
+        <v>2476299.550000003</v>
+      </c>
+      <c r="C174">
+        <v>1476299.550000001</v>
+      </c>
+      <c r="D174">
+        <v>1000000</v>
+      </c>
+      <c r="E174">
+        <v>668119.8199999994</v>
+      </c>
+      <c r="F174">
+        <v>668119.8199999994</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>668453.4900000009</v>
+      </c>
+      <c r="I174">
+        <v>668453.4900000009</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B175">
+        <v>2476299.550000003</v>
+      </c>
+      <c r="C175">
+        <v>1476299.550000001</v>
+      </c>
+      <c r="D175">
+        <v>1000000</v>
+      </c>
+      <c r="E175">
+        <v>668119.8199999994</v>
+      </c>
+      <c r="F175">
+        <v>668119.8199999994</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>669214.8800000008</v>
+      </c>
+      <c r="I175">
+        <v>669214.8800000008</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B176">
+        <v>2669175.590000003</v>
+      </c>
+      <c r="C176">
+        <v>1669175.590000001</v>
+      </c>
+      <c r="D176">
+        <v>1000000</v>
+      </c>
+      <c r="E176">
+        <v>669175.5899999993</v>
+      </c>
+      <c r="F176">
+        <v>669175.5899999993</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>669175.5900000008</v>
+      </c>
+      <c r="I176">
+        <v>669175.5900000008</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B177">
+        <v>1334244.340000004</v>
+      </c>
+      <c r="C177">
+        <v>334244.3400000008</v>
+      </c>
+      <c r="D177">
+        <v>1000000</v>
+      </c>
+      <c r="E177">
+        <v>669175.5899999993</v>
+      </c>
+      <c r="F177">
+        <v>669175.5899999993</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>679572.2700000009</v>
+      </c>
+      <c r="I177">
+        <v>679572.2700000009</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B178">
+        <v>2236341.150000004</v>
+      </c>
+      <c r="C178">
+        <v>1236341.150000001</v>
+      </c>
+      <c r="D178">
+        <v>1000000</v>
+      </c>
+      <c r="E178">
+        <v>659653.8499999987</v>
+      </c>
+      <c r="F178">
+        <v>659653.8499999987</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>655313.8600000008</v>
+      </c>
+      <c r="I178">
+        <v>655313.8600000008</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B179">
+        <v>2459443.460000004</v>
+      </c>
+      <c r="C179">
+        <v>1459443.460000001</v>
+      </c>
+      <c r="D179">
+        <v>1000000</v>
+      </c>
+      <c r="E179">
+        <v>654830.2399999986</v>
+      </c>
+      <c r="F179">
+        <v>654830.2399999986</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>654123.1300000006</v>
+      </c>
+      <c r="I179">
+        <v>654123.1300000006</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B180">
+        <v>2586531.360000004</v>
+      </c>
+      <c r="C180">
+        <v>1586531.360000001</v>
+      </c>
+      <c r="D180">
+        <v>1000000</v>
+      </c>
+      <c r="E180">
+        <v>651664.3599999986</v>
+      </c>
+      <c r="F180">
+        <v>651664.3599999986</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>650886.4000000006</v>
+      </c>
+      <c r="I180">
+        <v>650886.4000000006</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B181">
+        <v>2651140.560000004</v>
+      </c>
+      <c r="C181">
+        <v>1651140.560000001</v>
+      </c>
+      <c r="D181">
+        <v>1000000</v>
+      </c>
+      <c r="E181">
+        <v>651140.5599999985</v>
+      </c>
+      <c r="F181">
+        <v>651140.5599999985</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>651140.5600000006</v>
+      </c>
+      <c r="I181">
+        <v>651140.5600000006</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B182">
+        <v>1330872.920000003</v>
+      </c>
+      <c r="C182">
+        <v>330872.9200000011</v>
+      </c>
+      <c r="D182">
+        <v>1000000</v>
+      </c>
+      <c r="E182">
+        <v>651140.5599999985</v>
+      </c>
+      <c r="F182">
+        <v>651140.5599999985</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>640397.6400000007</v>
+      </c>
+      <c r="I182">
+        <v>640397.6400000007</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B183">
+        <v>2009118.710000003</v>
+      </c>
+      <c r="C183">
+        <v>1009118.710000001</v>
+      </c>
+      <c r="D183">
+        <v>1000000</v>
+      </c>
+      <c r="E183">
+        <v>653194.4799999982</v>
+      </c>
+      <c r="F183">
+        <v>653194.4799999982</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>656767.9900000005</v>
+      </c>
+      <c r="I183">
+        <v>656767.9900000005</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B184">
+        <v>2204410.680000003</v>
+      </c>
+      <c r="C184">
+        <v>1204410.680000001</v>
+      </c>
+      <c r="D184">
+        <v>1000000</v>
+      </c>
+      <c r="E184">
+        <v>655316.3799999983</v>
+      </c>
+      <c r="F184">
+        <v>655316.3799999983</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>655338.3000000007</v>
+      </c>
+      <c r="I184">
+        <v>655338.3000000007</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B185">
+        <v>2339670.220000004</v>
+      </c>
+      <c r="C185">
+        <v>1339670.220000001</v>
+      </c>
+      <c r="D185">
+        <v>1000000</v>
+      </c>
+      <c r="E185">
+        <v>661760.4599999983</v>
+      </c>
+      <c r="F185">
+        <v>661760.4599999983</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>666655.4800000008</v>
+      </c>
+      <c r="I185">
+        <v>666655.4800000008</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B186">
+        <v>2670233.170000004</v>
+      </c>
+      <c r="C186">
+        <v>1670233.170000001</v>
+      </c>
+      <c r="D186">
+        <v>1000000</v>
+      </c>
+      <c r="E186">
+        <v>670233.1699999984</v>
+      </c>
+      <c r="F186">
+        <v>670233.1699999984</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>670233.1700000007</v>
+      </c>
+      <c r="I186">
+        <v>670233.1700000007</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B187">
+        <v>1334742.320000004</v>
+      </c>
+      <c r="C187">
+        <v>334742.3200000008</v>
+      </c>
+      <c r="D187">
+        <v>1000000</v>
+      </c>
+      <c r="E187">
+        <v>670233.1699999984</v>
+      </c>
+      <c r="F187">
+        <v>670233.1699999984</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>691328.4400000005</v>
+      </c>
+      <c r="I187">
+        <v>691328.4400000005</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B188">
+        <v>1963527.770000004</v>
+      </c>
+      <c r="C188">
+        <v>963527.7700000011</v>
+      </c>
+      <c r="D188">
+        <v>1000000</v>
+      </c>
+      <c r="E188">
+        <v>680255.8199999986</v>
+      </c>
+      <c r="F188">
+        <v>680255.8199999986</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>681626.4800000008</v>
+      </c>
+      <c r="I188">
+        <v>681626.4800000008</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B189">
+        <v>2059183.090000004</v>
+      </c>
+      <c r="C189">
+        <v>1059183.090000001</v>
+      </c>
+      <c r="D189">
+        <v>1000000</v>
+      </c>
+      <c r="E189">
+        <v>678168.5999999986</v>
+      </c>
+      <c r="F189">
+        <v>678168.5999999986</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>678204.2900000009</v>
+      </c>
+      <c r="I189">
+        <v>678204.2900000009</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B190">
+        <v>2288510.660000004</v>
+      </c>
+      <c r="C190">
+        <v>1288510.660000001</v>
+      </c>
+      <c r="D190">
+        <v>1000000</v>
+      </c>
+      <c r="E190">
+        <v>679414.2599999986</v>
+      </c>
+      <c r="F190">
+        <v>679414.2599999986</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>679984.1400000009</v>
+      </c>
+      <c r="I190">
+        <v>679984.1400000009</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B191">
+        <v>2684143.620000004</v>
+      </c>
+      <c r="C191">
+        <v>1684143.620000001</v>
+      </c>
+      <c r="D191">
+        <v>1000000</v>
+      </c>
+      <c r="E191">
+        <v>684143.6199999985</v>
+      </c>
+      <c r="F191">
+        <v>684143.6199999985</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>684143.620000001</v>
+      </c>
+      <c r="I191">
+        <v>684143.620000001</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B192">
+        <v>1337250.150000003</v>
+      </c>
+      <c r="C192">
+        <v>337250.150000001</v>
+      </c>
+      <c r="D192">
+        <v>1000000</v>
+      </c>
+      <c r="E192">
+        <v>684143.6199999985</v>
+      </c>
+      <c r="F192">
+        <v>684143.6199999985</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>707103.0100000009</v>
+      </c>
+      <c r="I192">
+        <v>707103.0100000009</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B193">
+        <v>1868105.450000003</v>
+      </c>
+      <c r="C193">
+        <v>868105.450000001</v>
+      </c>
+      <c r="D193">
+        <v>1000000</v>
+      </c>
+      <c r="E193">
+        <v>689410.8899999985</v>
+      </c>
+      <c r="F193">
+        <v>689410.8899999985</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>690870.9700000007</v>
+      </c>
+      <c r="I193">
+        <v>690870.9700000007</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B194">
+        <v>2260501.530000004</v>
+      </c>
+      <c r="C194">
+        <v>1260501.530000001</v>
+      </c>
+      <c r="D194">
+        <v>1000000</v>
+      </c>
+      <c r="E194">
+        <v>687557.0299999985</v>
+      </c>
+      <c r="F194">
+        <v>687557.0299999985</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>688144.8700000005</v>
+      </c>
+      <c r="I194">
+        <v>688144.8700000005</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B195">
+        <v>2388923.620000004</v>
+      </c>
+      <c r="C195">
+        <v>1388923.620000001</v>
+      </c>
+      <c r="D195">
+        <v>1000000</v>
+      </c>
+      <c r="E195">
+        <v>684648.4799999986</v>
+      </c>
+      <c r="F195">
+        <v>684648.4799999986</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>685305.0600000005</v>
+      </c>
+      <c r="I195">
+        <v>685305.0600000005</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B196">
+        <v>2685578.450000004</v>
+      </c>
+      <c r="C196">
+        <v>1685578.450000001</v>
+      </c>
+      <c r="D196">
+        <v>1000000</v>
+      </c>
+      <c r="E196">
+        <v>685578.4499999986</v>
+      </c>
+      <c r="F196">
+        <v>685578.4499999986</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>685578.4500000004</v>
+      </c>
+      <c r="I196">
+        <v>685578.4500000004</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B197">
+        <v>1370352.320000005</v>
+      </c>
+      <c r="C197">
+        <v>370352.3200000012</v>
+      </c>
+      <c r="D197">
+        <v>1000000</v>
+      </c>
+      <c r="E197">
+        <v>685578.4499999986</v>
+      </c>
+      <c r="F197">
+        <v>685578.4499999986</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>708601.2100000002</v>
+      </c>
+      <c r="I197">
+        <v>708601.2100000002</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B198">
+        <v>2142041.150000005</v>
+      </c>
+      <c r="C198">
+        <v>1142041.150000001</v>
+      </c>
+      <c r="D198">
+        <v>1000000</v>
+      </c>
+      <c r="E198">
+        <v>701056.1699999988</v>
+      </c>
+      <c r="F198">
+        <v>701056.1699999988</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>705109.2299999999</v>
+      </c>
+      <c r="I198">
+        <v>705109.2299999999</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="2">
+        <v>44133</v>
+      </c>
+      <c r="B199">
+        <v>2505559.190000005</v>
+      </c>
+      <c r="C199">
+        <v>1505559.190000001</v>
+      </c>
+      <c r="D199">
+        <v>1000000</v>
+      </c>
+      <c r="E199">
+        <v>702859.0799999988</v>
+      </c>
+      <c r="F199">
+        <v>702859.0799999988</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>704706.1399999998</v>
+      </c>
+      <c r="I199">
+        <v>704706.1399999998</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B200">
+        <v>2698341.180000005</v>
+      </c>
+      <c r="C200">
+        <v>1698341.180000001</v>
+      </c>
+      <c r="D200">
+        <v>1000000</v>
+      </c>
+      <c r="E200">
+        <v>698341.1799999989</v>
+      </c>
+      <c r="F200">
+        <v>698341.1799999989</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>698341.1799999996</v>
+      </c>
+      <c r="I200">
+        <v>698341.1799999996</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B201">
+        <v>2698341.180000005</v>
+      </c>
+      <c r="C201">
+        <v>1698341.180000001</v>
+      </c>
+      <c r="D201">
+        <v>1000000</v>
+      </c>
+      <c r="E201">
+        <v>698341.1799999989</v>
+      </c>
+      <c r="F201">
+        <v>698341.1799999989</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>698341.1799999996</v>
+      </c>
+      <c r="I201">
+        <v>698341.1799999996</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B202">
+        <v>1340034.070000005</v>
+      </c>
+      <c r="C202">
+        <v>340034.0700000012</v>
+      </c>
+      <c r="D202">
+        <v>1000000</v>
+      </c>
+      <c r="E202">
+        <v>698341.1799999989</v>
+      </c>
+      <c r="F202">
+        <v>698341.1799999989</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>732485.6799999997</v>
+      </c>
+      <c r="I202">
+        <v>732485.6799999997</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B203">
+        <v>1851809.750000005</v>
+      </c>
+      <c r="C203">
+        <v>851809.750000001</v>
+      </c>
+      <c r="D203">
+        <v>1000000</v>
+      </c>
+      <c r="E203">
+        <v>713207.6999999989</v>
+      </c>
+      <c r="F203">
+        <v>713207.6999999989</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>721126.5699999995</v>
+      </c>
+      <c r="I203">
+        <v>721126.5699999995</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B204">
+        <v>2194490.270000005</v>
+      </c>
+      <c r="C204">
+        <v>1194490.270000001</v>
+      </c>
+      <c r="D204">
+        <v>1000000</v>
+      </c>
+      <c r="E204">
+        <v>724563.7899999988</v>
+      </c>
+      <c r="F204">
+        <v>724563.7899999988</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>735949.9699999994</v>
+      </c>
+      <c r="I204">
+        <v>735949.9699999994</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B205">
+        <v>2296395.760000005</v>
+      </c>
+      <c r="C205">
+        <v>1296395.760000001</v>
+      </c>
+      <c r="D205">
+        <v>1000000</v>
+      </c>
+      <c r="E205">
+        <v>727112.1899999988</v>
+      </c>
+      <c r="F205">
+        <v>727112.1899999988</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>734976.0799999994</v>
+      </c>
+      <c r="I205">
+        <v>734976.0799999994</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B206">
+        <v>2736935.230000006</v>
+      </c>
+      <c r="C206">
+        <v>1736935.230000001</v>
+      </c>
+      <c r="D206">
+        <v>1000000</v>
+      </c>
+      <c r="E206">
+        <v>736935.2299999989</v>
+      </c>
+      <c r="F206">
+        <v>736935.2299999989</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>736935.2299999992</v>
+      </c>
+      <c r="I206">
+        <v>736935.2299999992</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B207">
+        <v>1347775.380000005</v>
+      </c>
+      <c r="C207">
+        <v>347775.3800000018</v>
+      </c>
+      <c r="D207">
+        <v>1000000</v>
+      </c>
+      <c r="E207">
+        <v>736935.2299999989</v>
+      </c>
+      <c r="F207">
+        <v>736935.2299999989</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>746131.8499999989</v>
+      </c>
+      <c r="I207">
+        <v>746131.8499999989</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B208">
+        <v>2134322.310000004</v>
+      </c>
+      <c r="C208">
+        <v>1134322.310000002</v>
+      </c>
+      <c r="D208">
+        <v>1000000</v>
+      </c>
+      <c r="E208">
+        <v>744191.759999999</v>
+      </c>
+      <c r="F208">
+        <v>744191.759999999</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>746364.0299999989</v>
+      </c>
+      <c r="I208">
+        <v>746364.0299999989</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B209">
+        <v>2510928.230000005</v>
+      </c>
+      <c r="C209">
+        <v>1510928.230000002</v>
+      </c>
+      <c r="D209">
+        <v>1000000</v>
+      </c>
+      <c r="E209">
+        <v>748060.7699999987</v>
+      </c>
+      <c r="F209">
+        <v>748060.7699999987</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>749920.0699999988</v>
+      </c>
+      <c r="I209">
+        <v>749920.0699999988</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B210">
+        <v>2544089.480000005</v>
+      </c>
+      <c r="C210">
+        <v>1544089.480000002</v>
+      </c>
+      <c r="D210">
+        <v>1000000</v>
+      </c>
+      <c r="E210">
+        <v>747367.0199999987</v>
+      </c>
+      <c r="F210">
+        <v>747367.0199999987</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>750251.2299999988</v>
+      </c>
+      <c r="I210">
+        <v>750251.2299999988</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B211">
+        <v>2750297.540000005</v>
+      </c>
+      <c r="C211">
+        <v>1750297.540000002</v>
+      </c>
+      <c r="D211">
+        <v>1000000</v>
+      </c>
+      <c r="E211">
+        <v>750297.5399999988</v>
+      </c>
+      <c r="F211">
+        <v>750297.5399999988</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>750297.5399999989</v>
+      </c>
+      <c r="I211">
+        <v>750297.5399999989</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B212">
+        <v>1350995.230000005</v>
+      </c>
+      <c r="C212">
+        <v>350995.2300000018</v>
+      </c>
+      <c r="D212">
+        <v>1000000</v>
+      </c>
+      <c r="E212">
+        <v>750297.5399999988</v>
+      </c>
+      <c r="F212">
+        <v>750297.5399999988</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>765987.6899999987</v>
+      </c>
+      <c r="I212">
+        <v>765987.6899999987</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B213">
+        <v>2140902.850000006</v>
+      </c>
+      <c r="C213">
+        <v>1140902.850000002</v>
+      </c>
+      <c r="D213">
+        <v>1000000</v>
+      </c>
+      <c r="E213">
+        <v>755415.0499999988</v>
+      </c>
+      <c r="F213">
+        <v>755415.0499999988</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>754884.1399999988</v>
+      </c>
+      <c r="I213">
+        <v>754884.1399999988</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B214">
+        <v>2377934.250000006</v>
+      </c>
+      <c r="C214">
+        <v>1377934.250000002</v>
+      </c>
+      <c r="D214">
+        <v>1000000</v>
+      </c>
+      <c r="E214">
+        <v>753553.6299999987</v>
+      </c>
+      <c r="F214">
+        <v>753553.6299999987</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>751994.179999999</v>
+      </c>
+      <c r="I214">
+        <v>751994.179999999</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B215">
+        <v>2446760.990000005</v>
+      </c>
+      <c r="C215">
+        <v>1446760.990000002</v>
+      </c>
+      <c r="D215">
+        <v>1000000</v>
+      </c>
+      <c r="E215">
+        <v>754083.9999999987</v>
+      </c>
+      <c r="F215">
+        <v>754083.9999999987</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>753915.959999999</v>
+      </c>
+      <c r="I215">
+        <v>753915.959999999</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="2">
+        <v>44158</v>
+      </c>
+      <c r="B216">
+        <v>2753593.220000005</v>
+      </c>
+      <c r="C216">
+        <v>1753593.220000002</v>
+      </c>
+      <c r="D216">
+        <v>1000000</v>
+      </c>
+      <c r="E216">
+        <v>753593.2199999986</v>
+      </c>
+      <c r="F216">
+        <v>753593.2199999986</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>753593.2199999989</v>
+      </c>
+      <c r="I216">
+        <v>753593.2199999989</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B217">
+        <v>1385351.210000006</v>
+      </c>
+      <c r="C217">
+        <v>385351.2100000013</v>
+      </c>
+      <c r="D217">
+        <v>1000000</v>
+      </c>
+      <c r="E217">
+        <v>753593.2199999986</v>
+      </c>
+      <c r="F217">
+        <v>753593.2199999986</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>762349.0299999991</v>
+      </c>
+      <c r="I217">
+        <v>762349.0299999991</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B218">
+        <v>2097961.380000007</v>
+      </c>
+      <c r="C218">
+        <v>1097961.380000001</v>
+      </c>
+      <c r="D218">
+        <v>1000000</v>
+      </c>
+      <c r="E218">
+        <v>747923.1199999986</v>
+      </c>
+      <c r="F218">
+        <v>747923.1199999986</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>744418.2999999995</v>
+      </c>
+      <c r="I218">
+        <v>744418.2999999995</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B219">
+        <v>2368652.580000007</v>
+      </c>
+      <c r="C219">
+        <v>1368652.580000001</v>
+      </c>
+      <c r="D219">
+        <v>1000000</v>
+      </c>
+      <c r="E219">
+        <v>744927.3399999986</v>
+      </c>
+      <c r="F219">
+        <v>744927.3399999986</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>746366.2399999998</v>
+      </c>
+      <c r="I219">
+        <v>746366.2399999998</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B220">
+        <v>2502417.920000007</v>
+      </c>
+      <c r="C220">
+        <v>1502417.920000001</v>
+      </c>
+      <c r="D220">
+        <v>1000000</v>
+      </c>
+      <c r="E220">
+        <v>741832.9399999985</v>
+      </c>
+      <c r="F220">
+        <v>741832.9399999985</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>744318.3999999999</v>
+      </c>
+      <c r="I220">
+        <v>744318.3999999999</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B221">
+        <v>2743868.000000007</v>
+      </c>
+      <c r="C221">
+        <v>1743868.000000001</v>
+      </c>
+      <c r="D221">
+        <v>1000000</v>
+      </c>
+      <c r="E221">
+        <v>743867.9999999985</v>
+      </c>
+      <c r="F221">
+        <v>743867.9999999985</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>743868</v>
+      </c>
+      <c r="I221">
+        <v>743868</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B222">
+        <v>1349366.150000008</v>
+      </c>
+      <c r="C222">
+        <v>349366.1500000015</v>
+      </c>
+      <c r="D222">
+        <v>1000000</v>
+      </c>
+      <c r="E222">
+        <v>743867.9999999985</v>
+      </c>
+      <c r="F222">
+        <v>743867.9999999985</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>787922.27</v>
+      </c>
+      <c r="I222">
+        <v>787922.27</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B223">
+        <v>2193346.770000007</v>
+      </c>
+      <c r="C223">
+        <v>1193346.770000002</v>
+      </c>
+      <c r="D223">
+        <v>1000000</v>
+      </c>
+      <c r="E223">
+        <v>771543.0399999985</v>
+      </c>
+      <c r="F223">
+        <v>771543.0399999985</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>779335.78</v>
+      </c>
+      <c r="I223">
+        <v>779335.78</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B224">
+        <v>2438255.000000007</v>
+      </c>
+      <c r="C224">
+        <v>1438255.000000002</v>
+      </c>
+      <c r="D224">
+        <v>1000000</v>
+      </c>
+      <c r="E224">
+        <v>778326.0199999984</v>
+      </c>
+      <c r="F224">
+        <v>778326.0199999984</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>783848.1700000002</v>
+      </c>
+      <c r="I224">
+        <v>783848.1700000002</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B225">
+        <v>2648250.390000007</v>
+      </c>
+      <c r="C225">
+        <v>1648250.390000002</v>
+      </c>
+      <c r="D225">
+        <v>1000000</v>
+      </c>
+      <c r="E225">
+        <v>784316.2299999985</v>
+      </c>
+      <c r="F225">
+        <v>784316.2299999985</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>784963.7200000001</v>
+      </c>
+      <c r="I225">
+        <v>784963.7200000001</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B226">
+        <v>2784554.760000007</v>
+      </c>
+      <c r="C226">
+        <v>1784554.760000002</v>
+      </c>
+      <c r="D226">
+        <v>1000000</v>
+      </c>
+      <c r="E226">
+        <v>784554.7599999984</v>
+      </c>
+      <c r="F226">
+        <v>784554.7599999984</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>784554.7600000001</v>
+      </c>
+      <c r="I226">
+        <v>784554.7600000001</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B227">
+        <v>1357979.710000008</v>
+      </c>
+      <c r="C227">
+        <v>357979.7100000018</v>
+      </c>
+      <c r="D227">
+        <v>1000000</v>
+      </c>
+      <c r="E227">
+        <v>784554.7599999984</v>
+      </c>
+      <c r="F227">
+        <v>784554.7599999984</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>796912.7800000001</v>
+      </c>
+      <c r="I227">
+        <v>796912.7800000001</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" s="2">
+        <v>44174</v>
+      </c>
+      <c r="B228">
+        <v>2289778.970000007</v>
+      </c>
+      <c r="C228">
+        <v>1289778.970000002</v>
+      </c>
+      <c r="D228">
+        <v>1000000</v>
+      </c>
+      <c r="E228">
+        <v>776552.6199999985</v>
+      </c>
+      <c r="F228">
+        <v>776552.6199999985</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>775083.61</v>
+      </c>
+      <c r="I228">
+        <v>775083.61</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B229">
+        <v>2600177.250000007</v>
+      </c>
+      <c r="C229">
+        <v>1600177.250000001</v>
+      </c>
+      <c r="D229">
+        <v>1000000</v>
+      </c>
+      <c r="E229">
+        <v>774159.6099999986</v>
+      </c>
+      <c r="F229">
+        <v>774159.6099999986</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>775224.8100000001</v>
+      </c>
+      <c r="I229">
+        <v>775224.8100000001</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B230">
+        <v>2738742.790000008</v>
+      </c>
+      <c r="C230">
+        <v>1738742.790000001</v>
+      </c>
+      <c r="D230">
+        <v>1000000</v>
+      </c>
+      <c r="E230">
+        <v>773560.4299999985</v>
+      </c>
+      <c r="F230">
+        <v>773560.4299999985</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>773154.63</v>
+      </c>
+      <c r="I230">
+        <v>773154.63</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B231">
+        <v>2773073.470000008</v>
+      </c>
+      <c r="C231">
+        <v>1773073.470000001</v>
+      </c>
+      <c r="D231">
+        <v>1000000</v>
+      </c>
+      <c r="E231">
+        <v>773073.4699999986</v>
+      </c>
+      <c r="F231">
+        <v>773073.4699999986</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>773073.47</v>
+      </c>
+      <c r="I231">
+        <v>773073.47</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B232">
+        <v>1355053.510000008</v>
+      </c>
+      <c r="C232">
+        <v>355053.5100000013</v>
+      </c>
+      <c r="D232">
+        <v>1000000</v>
+      </c>
+      <c r="E232">
+        <v>773073.4699999986</v>
+      </c>
+      <c r="F232">
+        <v>773073.4699999986</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>805521.65</v>
+      </c>
+      <c r="I232">
+        <v>805521.65</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B233">
+        <v>1991347.950000008</v>
+      </c>
+      <c r="C233">
+        <v>991347.9500000014</v>
+      </c>
+      <c r="D233">
+        <v>1000000</v>
+      </c>
+      <c r="E233">
+        <v>786760.5099999986</v>
+      </c>
+      <c r="F233">
+        <v>786760.5099999986</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>795292.9400000001</v>
+      </c>
+      <c r="I233">
+        <v>795292.9400000001</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B234">
+        <v>2309669.280000008</v>
+      </c>
+      <c r="C234">
+        <v>1309669.280000001</v>
+      </c>
+      <c r="D234">
+        <v>1000000</v>
+      </c>
+      <c r="E234">
+        <v>793824.0699999986</v>
+      </c>
+      <c r="F234">
+        <v>793824.0699999986</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>799489.5100000002</v>
+      </c>
+      <c r="I234">
+        <v>799489.5100000002</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B235">
+        <v>2592321.260000008</v>
+      </c>
+      <c r="C235">
+        <v>1592321.260000002</v>
+      </c>
+      <c r="D235">
+        <v>1000000</v>
+      </c>
+      <c r="E235">
+        <v>799816.0599999988</v>
+      </c>
+      <c r="F235">
+        <v>799816.0599999988</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>802024.3500000002</v>
+      </c>
+      <c r="I235">
+        <v>802024.3500000002</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B236">
+        <v>2801991.280000009</v>
+      </c>
+      <c r="C236">
+        <v>1801991.280000002</v>
+      </c>
+      <c r="D236">
+        <v>1000000</v>
+      </c>
+      <c r="E236">
+        <v>801991.2799999987</v>
+      </c>
+      <c r="F236">
+        <v>801991.2799999987</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>801991.2800000003</v>
+      </c>
+      <c r="I236">
+        <v>801991.2800000003</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B237">
+        <v>1361049.570000008</v>
+      </c>
+      <c r="C237">
+        <v>361049.5700000019</v>
+      </c>
+      <c r="D237">
+        <v>1000000</v>
+      </c>
+      <c r="E237">
+        <v>801991.2799999987</v>
+      </c>
+      <c r="F237">
+        <v>801991.2799999987</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>826928.4600000004</v>
+      </c>
+      <c r="I237">
+        <v>826928.4600000004</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B238">
+        <v>2726640.120000007</v>
+      </c>
+      <c r="C238">
+        <v>1726640.120000002</v>
+      </c>
+      <c r="D238">
+        <v>1000000</v>
+      </c>
+      <c r="E238">
+        <v>832096.5499999988</v>
+      </c>
+      <c r="F238">
+        <v>832096.5499999988</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>834066.7100000005</v>
+      </c>
+      <c r="I238">
+        <v>834066.7100000005</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B239">
+        <v>2830696.810000007</v>
+      </c>
+      <c r="C239">
+        <v>1830696.810000002</v>
+      </c>
+      <c r="D239">
+        <v>1000000</v>
+      </c>
+      <c r="E239">
+        <v>830696.8099999988</v>
+      </c>
+      <c r="F239">
+        <v>830696.8099999988</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>830696.8100000008</v>
+      </c>
+      <c r="I239">
+        <v>830696.8100000008</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B240">
+        <v>2830696.810000007</v>
+      </c>
+      <c r="C240">
+        <v>1830696.810000002</v>
+      </c>
+      <c r="D240">
+        <v>1000000</v>
+      </c>
+      <c r="E240">
+        <v>830696.8099999988</v>
+      </c>
+      <c r="F240">
+        <v>830696.8099999988</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>830696.8100000008</v>
+      </c>
+      <c r="I240">
+        <v>830696.8100000008</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B241">
+        <v>2830696.810000007</v>
+      </c>
+      <c r="C241">
+        <v>1830696.810000002</v>
+      </c>
+      <c r="D241">
+        <v>1000000</v>
+      </c>
+      <c r="E241">
+        <v>830696.8099999988</v>
+      </c>
+      <c r="F241">
+        <v>830696.8099999988</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>830696.8100000008</v>
+      </c>
+      <c r="I241">
+        <v>830696.8100000008</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B242">
+        <v>1366437.710000008</v>
+      </c>
+      <c r="C242">
+        <v>366437.7100000022</v>
+      </c>
+      <c r="D242">
+        <v>1000000</v>
+      </c>
+      <c r="E242">
+        <v>830696.8099999988</v>
+      </c>
+      <c r="F242">
+        <v>830696.8099999988</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>839696.3600000005</v>
+      </c>
+      <c r="I242">
+        <v>839696.3600000005</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B243">
+        <v>2725410.460000006</v>
+      </c>
+      <c r="C243">
+        <v>1725410.460000002</v>
+      </c>
+      <c r="D243">
+        <v>1000000</v>
+      </c>
+      <c r="E243">
+        <v>832536.9099999989</v>
+      </c>
+      <c r="F243">
+        <v>832536.9099999989</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>835609.7400000007</v>
+      </c>
+      <c r="I243">
+        <v>835609.7400000007</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B244">
+        <v>2837910.860000007</v>
+      </c>
+      <c r="C244">
+        <v>1837910.860000002</v>
+      </c>
+      <c r="D244">
+        <v>1000000</v>
+      </c>
+      <c r="E244">
+        <v>837910.8599999989</v>
+      </c>
+      <c r="F244">
+        <v>837910.8599999989</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>837910.8600000007</v>
+      </c>
+      <c r="I244">
+        <v>837910.8600000007</v>
+      </c>
+      <c r="J244">
         <v>0</v>
       </c>
     </row>
